--- a/Tablas.xlsx
+++ b/Tablas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\guille\PRPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="127">
   <si>
     <t>Instancia</t>
   </si>
@@ -396,6 +396,15 @@
   </si>
   <si>
     <t>Totales</t>
+  </si>
+  <si>
+    <t>heur</t>
+  </si>
+  <si>
+    <t>heurplanos</t>
+  </si>
+  <si>
+    <t>theur(ms)</t>
   </si>
 </sst>
 </file>
@@ -499,12 +508,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -514,6 +517,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -796,16 +803,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="L99" sqref="L99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="9"/>
+    <col min="3" max="3" width="4.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="7"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -816,21 +825,27 @@
         <v>1</v>
       </c>
       <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B2">
@@ -839,25 +854,27 @@
       <c r="D2">
         <v>6247</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7">
         <f>100*(B2-D2)/B2</f>
         <v>0.30322374720714967</v>
       </c>
       <c r="F2">
         <v>4422</v>
       </c>
-      <c r="G2" s="9">
-        <v>0</v>
+      <c r="G2" s="7">
+        <f>100*(B2-F2)/B2</f>
+        <v>29.428662623683369</v>
       </c>
       <c r="H2">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <f>H2/1000</f>
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B3">
@@ -866,21 +883,23 @@
       <c r="D3">
         <v>4372</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="8">
         <f>100*(B3-D3)/B3</f>
         <v>0</v>
       </c>
       <c r="F3">
         <v>3315</v>
       </c>
-      <c r="G3" s="9">
-        <v>0</v>
+      <c r="G3" s="8">
+        <f>100*(B3-F3)/B3</f>
+        <v>24.176578225068617</v>
       </c>
       <c r="H3">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <f>H3/1000</f>
+        <v>7.8E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -896,19 +915,25 @@
         <f>SUM(D2:D3)</f>
         <v>10619</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <f>SUM(E2:E3)</f>
         <v>0.30322374720714967</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="11">
+      <c r="F4" s="3">
+        <f>SUM(F2:F3)</f>
+        <v>7737</v>
+      </c>
+      <c r="G4" s="7">
         <f>SUM(G2:G3)</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="3"/>
+        <v>53.60524084875199</v>
+      </c>
+      <c r="H4" s="3">
+        <f>SUM(H2:H3)</f>
+        <v>162</v>
+      </c>
       <c r="I4" s="3">
         <f>SUM(I2:I3)</f>
-        <v>0</v>
+        <v>0.16200000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -920,21 +945,27 @@
         <v>1</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="8" t="s">
+      <c r="F6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="I6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B7">
@@ -943,25 +974,27 @@
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <f t="shared" ref="E7:E67" si="0">100*(B7-D7)/B7</f>
         <v>0</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="7">
+        <f t="shared" ref="G4:G67" si="1">100*(B7-F7)/B7</f>
         <v>0</v>
       </c>
       <c r="H7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <f>H7/1000</f>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B8">
@@ -970,25 +1003,27 @@
       <c r="D8">
         <v>66</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8">
-        <v>47</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="1"/>
+        <v>42.424242424242422</v>
       </c>
       <c r="H8">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <f t="shared" ref="I8:I29" si="2">H8/1000</f>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B9">
@@ -997,25 +1032,27 @@
       <c r="D9">
         <v>56</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9">
         <v>38</v>
       </c>
-      <c r="G9" s="9">
-        <v>0</v>
+      <c r="G9" s="7">
+        <f t="shared" si="1"/>
+        <v>32.142857142857146</v>
       </c>
       <c r="H9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B10">
@@ -1024,25 +1061,27 @@
       <c r="D10">
         <v>45</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10">
         <v>42</v>
       </c>
-      <c r="G10" s="9">
-        <v>0</v>
+      <c r="G10" s="7">
+        <f t="shared" si="1"/>
+        <v>6.666666666666667</v>
       </c>
       <c r="H10">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.03</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B11">
@@ -1051,25 +1090,27 @@
       <c r="D11">
         <v>35</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11">
         <v>35</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B12">
@@ -1078,25 +1119,27 @@
       <c r="D12">
         <v>60</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F12">
-        <v>45</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="1"/>
+        <v>28.333333333333332</v>
       </c>
       <c r="H12">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3.1E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B13">
@@ -1105,25 +1148,27 @@
       <c r="D13">
         <v>89</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F13">
         <v>43</v>
       </c>
-      <c r="G13" s="9">
-        <v>0</v>
+      <c r="G13" s="7">
+        <f t="shared" si="1"/>
+        <v>51.685393258426963</v>
       </c>
       <c r="H13">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B14">
@@ -1132,25 +1177,27 @@
       <c r="D14">
         <v>90</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14">
         <v>80</v>
       </c>
-      <c r="G14" s="9">
-        <v>0</v>
+      <c r="G14" s="7">
+        <f t="shared" si="1"/>
+        <v>11.111111111111111</v>
       </c>
       <c r="H14">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B15">
@@ -1159,25 +1206,27 @@
       <c r="D15">
         <v>45</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="7">
         <f t="shared" si="0"/>
         <v>2.1739130434782608</v>
       </c>
       <c r="F15">
         <v>45</v>
       </c>
-      <c r="G15" s="9">
-        <v>0</v>
+      <c r="G15" s="7">
+        <f t="shared" si="1"/>
+        <v>2.1739130434782608</v>
       </c>
       <c r="H15">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B16">
@@ -1186,25 +1235,27 @@
       <c r="D16">
         <v>41</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16">
         <v>38</v>
       </c>
-      <c r="G16" s="9">
-        <v>0</v>
+      <c r="G16" s="7">
+        <f t="shared" si="1"/>
+        <v>7.3170731707317076</v>
       </c>
       <c r="H16">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B17">
@@ -1213,25 +1264,27 @@
       <c r="D17">
         <v>9</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F17">
         <v>9</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H17">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B18">
@@ -1240,25 +1293,27 @@
       <c r="D18">
         <v>10</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F18">
         <v>10</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H18">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -1267,25 +1322,27 @@
       <c r="D19">
         <v>5</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F19">
         <v>5</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H19">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B20">
@@ -1294,25 +1351,27 @@
       <c r="D20">
         <v>128</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F20">
         <v>108</v>
       </c>
-      <c r="G20" s="9">
-        <v>0</v>
+      <c r="G20" s="7">
+        <f t="shared" si="1"/>
+        <v>15.625</v>
       </c>
       <c r="H20">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B21">
@@ -1321,25 +1380,27 @@
       <c r="D21">
         <v>39</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="7">
         <f t="shared" si="0"/>
         <v>9.3023255813953494</v>
       </c>
       <c r="F21">
         <v>36</v>
       </c>
-      <c r="G21" s="9">
-        <v>0</v>
+      <c r="G21" s="7">
+        <f t="shared" si="1"/>
+        <v>16.279069767441861</v>
       </c>
       <c r="H21">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.03</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B22">
@@ -1348,25 +1409,27 @@
       <c r="D22">
         <v>106</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="7">
         <f t="shared" si="0"/>
         <v>6.1946902654867255</v>
       </c>
       <c r="F22">
-        <v>84</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="1"/>
+        <v>28.318584070796462</v>
       </c>
       <c r="H22">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B23">
@@ -1375,25 +1438,27 @@
       <c r="D23">
         <v>39</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="7">
         <f t="shared" si="0"/>
         <v>7.1428571428571432</v>
       </c>
       <c r="F23">
         <v>37</v>
       </c>
-      <c r="G23" s="9">
-        <v>0</v>
+      <c r="G23" s="7">
+        <f t="shared" si="1"/>
+        <v>11.904761904761905</v>
       </c>
       <c r="H23">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B24">
@@ -1402,25 +1467,27 @@
       <c r="D24">
         <v>17</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="7">
         <f t="shared" si="0"/>
         <v>19.047619047619047</v>
       </c>
       <c r="F24">
         <v>21</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H24">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B25">
@@ -1429,25 +1496,27 @@
       <c r="D25">
         <v>90</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F25">
         <v>75</v>
       </c>
-      <c r="G25" s="9">
-        <v>0</v>
+      <c r="G25" s="7">
+        <f t="shared" si="1"/>
+        <v>16.666666666666668</v>
       </c>
       <c r="H25">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B26">
@@ -1456,25 +1525,27 @@
       <c r="D26">
         <v>246</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F26">
         <v>177</v>
       </c>
-      <c r="G26" s="9">
-        <v>0</v>
+      <c r="G26" s="7">
+        <f t="shared" si="1"/>
+        <v>28.048780487804876</v>
       </c>
       <c r="H26">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B27">
@@ -1483,25 +1554,27 @@
       <c r="D27">
         <v>252</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="7">
         <f t="shared" si="0"/>
         <v>2.3255813953488373</v>
       </c>
       <c r="F27">
         <v>196</v>
       </c>
-      <c r="G27" s="9">
-        <v>0</v>
+      <c r="G27" s="7">
+        <f t="shared" si="1"/>
+        <v>24.031007751937985</v>
       </c>
       <c r="H27">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B28">
@@ -1510,25 +1583,27 @@
       <c r="D28">
         <v>474</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F28">
         <v>269</v>
       </c>
-      <c r="G28" s="9">
-        <v>0</v>
+      <c r="G28" s="7">
+        <f t="shared" si="1"/>
+        <v>43.248945147679322</v>
       </c>
       <c r="H28">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B29">
@@ -1537,25 +1612,27 @@
       <c r="D29">
         <v>360</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F29">
         <v>250</v>
       </c>
-      <c r="G29" s="9">
-        <v>0</v>
+      <c r="G29" s="7">
+        <f t="shared" si="1"/>
+        <v>30.555555555555557</v>
       </c>
       <c r="H29">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B30">
@@ -1564,21 +1641,23 @@
       <c r="D30">
         <v>230</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="8">
         <f t="shared" si="0"/>
         <v>2.9535864978902953</v>
       </c>
       <c r="F30">
         <v>182</v>
       </c>
-      <c r="G30" s="9">
-        <v>0</v>
+      <c r="G30" s="8">
+        <f t="shared" si="1"/>
+        <v>23.206751054852322</v>
       </c>
       <c r="H30">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <f>H30/1000</f>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -1594,19 +1673,22 @@
         <f>SUM(D7:D30)</f>
         <v>2535</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="7">
         <f>SUM(E7:E30)</f>
         <v>49.140572974075653</v>
       </c>
       <c r="F31" s="3"/>
-      <c r="G31" s="11">
+      <c r="G31" s="7">
         <f>SUM(G7:G30)</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="3"/>
+        <v>419.73971255834448</v>
+      </c>
+      <c r="H31" s="3">
+        <f>SUM(H7:H30)</f>
+        <v>854</v>
+      </c>
       <c r="I31" s="3">
         <f>SUM(I7:I30)</f>
-        <v>0</v>
+        <v>0.85400000000000031</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1617,21 +1699,27 @@
         <v>1</v>
       </c>
       <c r="C34" s="5"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="8" t="s">
+      <c r="D34" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="8" t="s">
+      <c r="F34" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H34" s="5"/>
+      <c r="H34" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="I34" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B35">
@@ -1640,25 +1728,27 @@
       <c r="D35">
         <v>109</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F35">
         <v>109</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H35">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <f>H35/1000</f>
+        <v>0.03</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="10" t="s">
         <v>65</v>
       </c>
       <c r="B36">
@@ -1667,25 +1757,27 @@
       <c r="D36">
         <v>115</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36" s="9">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="G36" s="7">
+        <f t="shared" si="1"/>
+        <v>33.913043478260867</v>
       </c>
       <c r="H36">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <f t="shared" ref="I36:I70" si="3">H36/1000</f>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B37">
@@ -1694,25 +1786,27 @@
       <c r="D37">
         <v>274</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F37">
-        <v>377</v>
-      </c>
-      <c r="G37" s="9">
+        <v>274</v>
+      </c>
+      <c r="G37" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H37">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="10" t="s">
         <v>63</v>
       </c>
       <c r="B38">
@@ -1721,25 +1815,27 @@
       <c r="D38">
         <v>172</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F38">
-        <v>248</v>
-      </c>
-      <c r="G38" s="9">
-        <v>0</v>
+        <v>170</v>
+      </c>
+      <c r="G38" s="7">
+        <f t="shared" si="1"/>
+        <v>1.1627906976744187</v>
       </c>
       <c r="H38">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="10" t="s">
         <v>62</v>
       </c>
       <c r="B39">
@@ -1748,25 +1844,27 @@
       <c r="D39">
         <v>210</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F39">
-        <v>556</v>
-      </c>
-      <c r="G39" s="9">
-        <v>0</v>
+        <v>101</v>
+      </c>
+      <c r="G39" s="7">
+        <f t="shared" si="1"/>
+        <v>51.904761904761905</v>
       </c>
       <c r="H39">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="10" t="s">
         <v>61</v>
       </c>
       <c r="B40">
@@ -1775,25 +1873,27 @@
       <c r="D40">
         <v>313</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F40">
-        <v>675</v>
-      </c>
-      <c r="G40" s="9">
-        <v>0</v>
+        <v>286</v>
+      </c>
+      <c r="G40" s="7">
+        <f t="shared" si="1"/>
+        <v>8.6261980830670932</v>
       </c>
       <c r="H40">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="10" t="s">
         <v>60</v>
       </c>
       <c r="B41">
@@ -1802,25 +1902,27 @@
       <c r="D41">
         <v>166</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F41">
-        <v>520</v>
-      </c>
-      <c r="G41" s="9">
-        <v>0</v>
+        <v>124</v>
+      </c>
+      <c r="G41" s="7">
+        <f t="shared" si="1"/>
+        <v>25.301204819277107</v>
       </c>
       <c r="H41">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="10" t="s">
         <v>59</v>
       </c>
       <c r="B42">
@@ -1829,25 +1931,27 @@
       <c r="D42">
         <v>260</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F42">
-        <v>903</v>
-      </c>
-      <c r="G42" s="9">
-        <v>0</v>
+        <v>161</v>
+      </c>
+      <c r="G42" s="7">
+        <f t="shared" si="1"/>
+        <v>38.07692307692308</v>
       </c>
       <c r="H42">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B43">
@@ -1856,25 +1960,27 @@
       <c r="D43">
         <v>457</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F43">
-        <v>842</v>
-      </c>
-      <c r="G43" s="9">
+        <v>457</v>
+      </c>
+      <c r="G43" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H43">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="10" t="s">
         <v>57</v>
       </c>
       <c r="B44">
@@ -1883,25 +1989,27 @@
       <c r="D44">
         <v>160</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F44">
-        <v>489</v>
-      </c>
-      <c r="G44" s="9">
+        <v>160</v>
+      </c>
+      <c r="G44" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H44">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="10" t="s">
         <v>56</v>
       </c>
       <c r="B45">
@@ -1910,24 +2018,25 @@
       <c r="D45">
         <v>0</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="7">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>411</v>
-      </c>
-      <c r="G45" s="9">
+        <v>0</v>
+      </c>
+      <c r="G45" s="7">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="10" t="s">
         <v>55</v>
       </c>
       <c r="B46">
@@ -1936,25 +2045,27 @@
       <c r="D46">
         <v>398</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F46">
-        <v>76</v>
-      </c>
-      <c r="G46" s="9">
-        <v>0</v>
+        <v>396</v>
+      </c>
+      <c r="G46" s="7">
+        <f t="shared" si="1"/>
+        <v>0.50251256281407031</v>
       </c>
       <c r="H46">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B47">
@@ -1963,25 +2074,27 @@
       <c r="D47">
         <v>280</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F47">
-        <v>432</v>
-      </c>
-      <c r="G47" s="9">
-        <v>0</v>
+        <v>248</v>
+      </c>
+      <c r="G47" s="7">
+        <f t="shared" si="1"/>
+        <v>11.428571428571429</v>
       </c>
       <c r="H47">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B48">
@@ -1990,25 +2103,27 @@
       <c r="D48">
         <v>662</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="7">
         <f t="shared" si="0"/>
         <v>7.670850767085077</v>
       </c>
       <c r="F48">
-        <v>803</v>
-      </c>
-      <c r="G48" s="9">
-        <v>0</v>
+        <v>556</v>
+      </c>
+      <c r="G48" s="7">
+        <f t="shared" si="1"/>
+        <v>22.454672245467226</v>
       </c>
       <c r="H48">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3.9E-2</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="10" t="s">
         <v>52</v>
       </c>
       <c r="B49">
@@ -2017,25 +2132,27 @@
       <c r="D49">
         <v>810</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F49">
-        <v>654</v>
-      </c>
-      <c r="G49" s="9">
-        <v>0</v>
+        <v>675</v>
+      </c>
+      <c r="G49" s="7">
+        <f t="shared" si="1"/>
+        <v>16.666666666666668</v>
       </c>
       <c r="H49">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3.9E-2</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B50">
@@ -2044,25 +2161,27 @@
       <c r="D50">
         <v>702</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F50">
-        <v>674</v>
-      </c>
-      <c r="G50" s="9">
-        <v>0</v>
+        <v>518</v>
+      </c>
+      <c r="G50" s="7">
+        <f t="shared" si="1"/>
+        <v>26.210826210826212</v>
       </c>
       <c r="H50">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="10" t="s">
         <v>50</v>
       </c>
       <c r="B51">
@@ -2071,25 +2190,27 @@
       <c r="D51">
         <v>965</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="7">
         <f t="shared" si="0"/>
         <v>1.5306122448979591</v>
       </c>
       <c r="F51">
-        <v>1204</v>
-      </c>
-      <c r="G51" s="9">
-        <v>0</v>
+        <v>903</v>
+      </c>
+      <c r="G51" s="7">
+        <f t="shared" si="1"/>
+        <v>7.8571428571428568</v>
       </c>
       <c r="H51">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B52">
@@ -2098,25 +2219,27 @@
       <c r="D52">
         <v>1070</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="7">
         <f t="shared" si="0"/>
         <v>4.0358744394618835</v>
       </c>
       <c r="F52">
-        <v>880</v>
-      </c>
-      <c r="G52" s="9">
-        <v>0</v>
+        <v>842</v>
+      </c>
+      <c r="G52" s="7">
+        <f t="shared" si="1"/>
+        <v>24.484304932735427</v>
       </c>
       <c r="H52">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="10" t="s">
         <v>48</v>
       </c>
       <c r="B53">
@@ -2125,25 +2248,27 @@
       <c r="D53">
         <v>515</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1367</v>
-      </c>
-      <c r="G53" s="9">
-        <v>0</v>
+        <v>489</v>
+      </c>
+      <c r="G53" s="7">
+        <f t="shared" si="1"/>
+        <v>5.0485436893203888</v>
       </c>
       <c r="H53">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="10" t="s">
         <v>47</v>
       </c>
       <c r="B54">
@@ -2152,25 +2277,27 @@
       <c r="D54">
         <v>509</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F54">
-        <v>400</v>
-      </c>
-      <c r="G54" s="9">
-        <v>0</v>
+        <v>411</v>
+      </c>
+      <c r="G54" s="7">
+        <f t="shared" si="1"/>
+        <v>19.253438113948921</v>
       </c>
       <c r="H54">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B55">
@@ -2179,25 +2306,27 @@
       <c r="D55">
         <v>457</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E55" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F55">
-        <v>572</v>
-      </c>
-      <c r="G55" s="9">
-        <v>0</v>
+        <v>432</v>
+      </c>
+      <c r="G55" s="7">
+        <f t="shared" si="1"/>
+        <v>5.4704595185995624</v>
       </c>
       <c r="H55">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="10" t="s">
         <v>45</v>
       </c>
       <c r="B56">
@@ -2206,25 +2335,27 @@
       <c r="D56">
         <v>976</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="7">
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
       <c r="F56">
-        <v>379</v>
-      </c>
-      <c r="G56" s="9">
-        <v>0</v>
+        <v>801</v>
+      </c>
+      <c r="G56" s="7">
+        <f t="shared" si="1"/>
+        <v>19.899999999999999</v>
       </c>
       <c r="H56">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="10" t="s">
         <v>44</v>
       </c>
       <c r="B57">
@@ -2233,25 +2364,27 @@
       <c r="D57">
         <v>989</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F57">
-        <v>274</v>
-      </c>
-      <c r="G57" s="9">
-        <v>0</v>
+        <v>654</v>
+      </c>
+      <c r="G57" s="7">
+        <f t="shared" si="1"/>
+        <v>33.872598584428715</v>
       </c>
       <c r="H57">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B58">
@@ -2260,25 +2393,27 @@
       <c r="D58">
         <v>968</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1011</v>
-      </c>
-      <c r="G58" s="9">
-        <v>0</v>
+        <v>674</v>
+      </c>
+      <c r="G58" s="7">
+        <f t="shared" si="1"/>
+        <v>30.371900826446282</v>
       </c>
       <c r="H58">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B59">
@@ -2287,25 +2422,27 @@
       <c r="D59">
         <v>1463</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1235</v>
-      </c>
-      <c r="G59" s="9">
-        <v>0</v>
+        <v>1204</v>
+      </c>
+      <c r="G59" s="7">
+        <f t="shared" si="1"/>
+        <v>17.703349282296649</v>
       </c>
       <c r="H59">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="10" t="s">
         <v>41</v>
       </c>
       <c r="B60">
@@ -2314,25 +2451,27 @@
       <c r="D60">
         <v>1317</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F60">
-        <v>771</v>
-      </c>
-      <c r="G60" s="9">
-        <v>0</v>
+        <v>880</v>
+      </c>
+      <c r="G60" s="7">
+        <f t="shared" si="1"/>
+        <v>33.181473044798786</v>
       </c>
       <c r="H60">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B61">
@@ -2341,25 +2480,27 @@
       <c r="D61">
         <v>1610</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="7">
         <f t="shared" si="0"/>
         <v>0.92307692307692313</v>
       </c>
       <c r="F61">
-        <v>1440</v>
-      </c>
-      <c r="G61" s="9">
-        <v>0</v>
+        <v>1367</v>
+      </c>
+      <c r="G61" s="7">
+        <f t="shared" si="1"/>
+        <v>15.876923076923077</v>
       </c>
       <c r="H61">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B62">
@@ -2368,25 +2509,27 @@
       <c r="D62">
         <v>501</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E62" s="7">
         <f t="shared" si="0"/>
         <v>8.7431693989071047</v>
       </c>
       <c r="F62">
-        <v>1321</v>
-      </c>
-      <c r="G62" s="9">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="G62" s="7">
+        <f t="shared" si="1"/>
+        <v>27.140255009107467</v>
       </c>
       <c r="H62">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B63">
@@ -2395,25 +2538,27 @@
       <c r="D63">
         <v>786</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="7">
         <f t="shared" si="0"/>
         <v>3.4398034398034398</v>
       </c>
       <c r="F63">
-        <v>1258</v>
-      </c>
-      <c r="G63" s="9">
-        <v>0</v>
+        <v>572</v>
+      </c>
+      <c r="G63" s="7">
+        <f t="shared" si="1"/>
+        <v>29.72972972972973</v>
       </c>
       <c r="H63">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.107</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B64">
@@ -2422,25 +2567,27 @@
       <c r="D64">
         <v>517</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E64" s="7">
         <f t="shared" si="0"/>
         <v>6.8468468468468471</v>
       </c>
       <c r="F64">
-        <v>172</v>
-      </c>
-      <c r="G64" s="9">
-        <v>0</v>
+        <v>379</v>
+      </c>
+      <c r="G64" s="7">
+        <f t="shared" si="1"/>
+        <v>31.711711711711711</v>
       </c>
       <c r="H64">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>7.5999999999999998E-2</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B65">
@@ -2449,25 +2596,27 @@
       <c r="D65">
         <v>1378</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E65" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F65">
+        <v>1011</v>
+      </c>
+      <c r="G65" s="7">
+        <f t="shared" si="1"/>
+        <v>26.632801161103046</v>
+      </c>
+      <c r="H65">
         <v>101</v>
       </c>
-      <c r="G65" s="9">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>27</v>
-      </c>
       <c r="I65">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.10100000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B66">
@@ -2476,25 +2625,27 @@
       <c r="D66">
         <v>1503</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E66" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F66">
-        <v>286</v>
-      </c>
-      <c r="G66" s="9">
-        <v>0</v>
+        <v>1235</v>
+      </c>
+      <c r="G66" s="7">
+        <f t="shared" si="1"/>
+        <v>17.831004657351961</v>
       </c>
       <c r="H66">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B67">
@@ -2503,25 +2654,27 @@
       <c r="D67">
         <v>1028</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E67" s="7">
         <f t="shared" si="0"/>
         <v>3.5647279549718576</v>
       </c>
       <c r="F67">
-        <v>124</v>
-      </c>
-      <c r="G67" s="9">
-        <v>0</v>
+        <v>759</v>
+      </c>
+      <c r="G67" s="7">
+        <f t="shared" si="1"/>
+        <v>28.79924953095685</v>
       </c>
       <c r="H67">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>8.7999999999999995E-2</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B68">
@@ -2530,25 +2683,27 @@
       <c r="D68">
         <v>2074</v>
       </c>
-      <c r="E68" s="9">
-        <f t="shared" ref="E68:E131" si="1">100*(B68-D68)/B68</f>
+      <c r="E68" s="7">
+        <f t="shared" ref="E68:E131" si="4">100*(B68-D68)/B68</f>
         <v>0</v>
       </c>
       <c r="F68">
-        <v>161</v>
-      </c>
-      <c r="G68" s="9">
-        <v>0</v>
+        <v>1440</v>
+      </c>
+      <c r="G68" s="7">
+        <f t="shared" ref="G68:G131" si="5">100*(B68-F68)/B68</f>
+        <v>30.568948891031823</v>
       </c>
       <c r="H68">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B69">
@@ -2557,25 +2712,27 @@
       <c r="D69">
         <v>1806</v>
       </c>
-      <c r="E69" s="9">
-        <f t="shared" si="1"/>
+      <c r="E69" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F69">
-        <v>457</v>
-      </c>
-      <c r="G69" s="9">
-        <v>0</v>
+        <v>1321</v>
+      </c>
+      <c r="G69" s="7">
+        <f t="shared" si="5"/>
+        <v>26.854928017718716</v>
       </c>
       <c r="H69">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B70">
@@ -2584,21 +2741,23 @@
       <c r="D70">
         <v>1820</v>
       </c>
-      <c r="E70" s="9">
-        <f t="shared" si="1"/>
+      <c r="E70" s="7">
+        <f t="shared" si="4"/>
         <v>4.2609153077327724</v>
       </c>
       <c r="F70">
-        <v>160</v>
-      </c>
-      <c r="G70" s="9">
-        <v>0</v>
+        <v>1258</v>
+      </c>
+      <c r="G70" s="8">
+        <f t="shared" si="5"/>
+        <v>33.824302998421885</v>
       </c>
       <c r="H70">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>9.9000000000000005E-2</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -2614,19 +2773,22 @@
         <f>SUM(D35:D70)</f>
         <v>27340</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E71" s="9">
         <f>SUM(E35:E70)</f>
         <v>43.415877322783864</v>
       </c>
       <c r="F71" s="3"/>
-      <c r="G71" s="11">
+      <c r="G71" s="7">
         <f>SUM(G35:G70)</f>
-        <v>0</v>
-      </c>
-      <c r="H71" s="3"/>
+        <v>702.36123680808407</v>
+      </c>
+      <c r="H71" s="3">
+        <f>SUM(H35:H70)</f>
+        <v>1945</v>
+      </c>
       <c r="I71" s="3">
         <f>SUM(I35:I70)</f>
-        <v>0</v>
+        <v>1.9450000000000005</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2637,21 +2799,27 @@
         <v>1</v>
       </c>
       <c r="C75" s="5"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="8" t="s">
+      <c r="D75" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E75" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F75" s="5"/>
-      <c r="G75" s="8" t="s">
+      <c r="F75" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G75" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H75" s="5"/>
+      <c r="H75" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="I75" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="11" t="s">
         <v>102</v>
       </c>
       <c r="B76">
@@ -2660,24 +2828,25 @@
       <c r="D76">
         <v>0</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E76" s="7">
         <v>0</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
-      <c r="G76" s="9">
+      <c r="G76" s="7">
         <v>0</v>
       </c>
       <c r="H76">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <f>H76/1000</f>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="10" t="s">
         <v>101</v>
       </c>
       <c r="B77">
@@ -2686,24 +2855,25 @@
       <c r="D77">
         <v>0</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E77" s="7">
         <v>0</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
-      <c r="G77" s="9">
+      <c r="G77" s="7">
         <v>0</v>
       </c>
       <c r="H77">
         <v>27</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <f t="shared" ref="I77:I111" si="6">H77/1000</f>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="10" t="s">
         <v>100</v>
       </c>
       <c r="B78">
@@ -2712,24 +2882,25 @@
       <c r="D78">
         <v>0</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E78" s="7">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>4</v>
-      </c>
-      <c r="G78" s="9">
+        <v>0</v>
+      </c>
+      <c r="G78" s="7">
         <v>0</v>
       </c>
       <c r="H78">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="12" t="s">
+      <c r="A79" s="10" t="s">
         <v>99</v>
       </c>
       <c r="B79">
@@ -2738,25 +2909,27 @@
       <c r="D79">
         <v>2</v>
       </c>
-      <c r="E79" s="9">
-        <f t="shared" si="1"/>
+      <c r="E79" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F79">
-        <v>11</v>
-      </c>
-      <c r="G79" s="9">
+        <v>2</v>
+      </c>
+      <c r="G79" s="7">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H79">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="12" t="s">
+      <c r="A80" s="10" t="s">
         <v>98</v>
       </c>
       <c r="B80">
@@ -2765,24 +2938,25 @@
       <c r="D80">
         <v>0</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E80" s="7">
         <v>0</v>
       </c>
       <c r="F80">
-        <v>7</v>
-      </c>
-      <c r="G80" s="9">
+        <v>0</v>
+      </c>
+      <c r="G80" s="7">
         <v>0</v>
       </c>
       <c r="H80">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.03</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="10" t="s">
         <v>97</v>
       </c>
       <c r="B81">
@@ -2791,25 +2965,27 @@
       <c r="D81">
         <v>4</v>
       </c>
-      <c r="E81" s="9">
-        <f t="shared" si="1"/>
+      <c r="E81" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F81">
-        <v>12</v>
-      </c>
-      <c r="G81" s="9">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G81" s="7">
+        <f t="shared" si="5"/>
+        <v>50</v>
       </c>
       <c r="H81">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="12" t="s">
+      <c r="A82" s="10" t="s">
         <v>96</v>
       </c>
       <c r="B82">
@@ -2818,25 +2994,27 @@
       <c r="D82">
         <v>9</v>
       </c>
-      <c r="E82" s="9">
-        <f t="shared" si="1"/>
+      <c r="E82" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F82">
-        <v>20</v>
-      </c>
-      <c r="G82" s="9">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="G82" s="7">
+        <f t="shared" si="5"/>
+        <v>22.222222222222221</v>
       </c>
       <c r="H82">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="10" t="s">
         <v>95</v>
       </c>
       <c r="B83">
@@ -2845,25 +3023,27 @@
       <c r="D83">
         <v>1</v>
       </c>
-      <c r="E83" s="9">
-        <f t="shared" si="1"/>
+      <c r="E83" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F83">
-        <v>16</v>
-      </c>
-      <c r="G83" s="9">
+        <v>1</v>
+      </c>
+      <c r="G83" s="7">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H83">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="10" t="s">
         <v>94</v>
       </c>
       <c r="B84">
@@ -2872,25 +3052,27 @@
       <c r="D84">
         <v>4</v>
       </c>
-      <c r="E84" s="9">
-        <f t="shared" si="1"/>
+      <c r="E84" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F84">
-        <v>17</v>
-      </c>
-      <c r="G84" s="9">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G84" s="7">
+        <f t="shared" si="5"/>
+        <v>50</v>
       </c>
       <c r="H84">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="10" t="s">
         <v>93</v>
       </c>
       <c r="B85">
@@ -2899,25 +3081,27 @@
       <c r="D85">
         <v>2</v>
       </c>
-      <c r="E85" s="9">
-        <f t="shared" si="1"/>
+      <c r="E85" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F85">
-        <v>4</v>
-      </c>
-      <c r="G85" s="9">
+        <v>2</v>
+      </c>
+      <c r="G85" s="7">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H85">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="12" t="s">
+      <c r="A86" s="10" t="s">
         <v>92</v>
       </c>
       <c r="B86">
@@ -2926,24 +3110,25 @@
       <c r="D86">
         <v>0</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E86" s="7">
         <v>0</v>
       </c>
       <c r="F86">
-        <v>5</v>
-      </c>
-      <c r="G86" s="9">
+        <v>0</v>
+      </c>
+      <c r="G86" s="7">
         <v>0</v>
       </c>
       <c r="H86">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="12" t="s">
+      <c r="A87" s="10" t="s">
         <v>91</v>
       </c>
       <c r="B87">
@@ -2952,25 +3137,27 @@
       <c r="D87">
         <v>4</v>
       </c>
-      <c r="E87" s="9">
-        <f t="shared" si="1"/>
+      <c r="E87" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87" s="9">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G87" s="7">
+        <f t="shared" si="5"/>
+        <v>50</v>
       </c>
       <c r="H87">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="12" t="s">
+      <c r="A88" s="10" t="s">
         <v>90</v>
       </c>
       <c r="B88">
@@ -2979,25 +3166,27 @@
       <c r="D88">
         <v>15</v>
       </c>
-      <c r="E88" s="9">
-        <f t="shared" si="1"/>
+      <c r="E88" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F88">
-        <v>5</v>
-      </c>
-      <c r="G88" s="9">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="G88" s="7">
+        <f t="shared" si="5"/>
+        <v>26.666666666666668</v>
       </c>
       <c r="H88">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="12" t="s">
+      <c r="A89" s="10" t="s">
         <v>89</v>
       </c>
       <c r="B89">
@@ -3006,25 +3195,27 @@
       <c r="D89">
         <v>11</v>
       </c>
-      <c r="E89" s="9">
-        <f t="shared" si="1"/>
+      <c r="E89" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F89">
-        <v>27</v>
-      </c>
-      <c r="G89" s="9">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="G89" s="7">
+        <f t="shared" si="5"/>
+        <v>45.454545454545453</v>
       </c>
       <c r="H89">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="12" t="s">
+      <c r="A90" s="10" t="s">
         <v>88</v>
       </c>
       <c r="B90">
@@ -3033,25 +3224,27 @@
       <c r="D90">
         <v>14</v>
       </c>
-      <c r="E90" s="9">
-        <f t="shared" si="1"/>
+      <c r="E90" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F90">
-        <v>26</v>
-      </c>
-      <c r="G90" s="9">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="G90" s="7">
+        <f t="shared" si="5"/>
+        <v>21.428571428571427</v>
       </c>
       <c r="H90">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="12" t="s">
+      <c r="A91" s="10" t="s">
         <v>87</v>
       </c>
       <c r="B91">
@@ -3060,25 +3253,27 @@
       <c r="D91">
         <v>26</v>
       </c>
-      <c r="E91" s="9">
-        <f t="shared" si="1"/>
+      <c r="E91" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F91">
-        <v>26</v>
-      </c>
-      <c r="G91" s="9">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="G91" s="7">
+        <f t="shared" si="5"/>
+        <v>23.076923076923077</v>
       </c>
       <c r="H91">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="12" t="s">
+      <c r="A92" s="10" t="s">
         <v>86</v>
       </c>
       <c r="B92">
@@ -3087,25 +3282,27 @@
       <c r="D92">
         <v>20</v>
       </c>
-      <c r="E92" s="9">
-        <f t="shared" si="1"/>
+      <c r="E92" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F92">
-        <v>45</v>
-      </c>
-      <c r="G92" s="9">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="G92" s="7">
+        <f t="shared" si="5"/>
+        <v>25</v>
       </c>
       <c r="H92">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="12" t="s">
+      <c r="A93" s="10" t="s">
         <v>85</v>
       </c>
       <c r="B93">
@@ -3114,25 +3311,27 @@
       <c r="D93">
         <v>24</v>
       </c>
-      <c r="E93" s="9">
-        <f t="shared" si="1"/>
+      <c r="E93" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F93">
-        <v>42</v>
-      </c>
-      <c r="G93" s="9">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="G93" s="7">
+        <f t="shared" si="5"/>
+        <v>29.166666666666668</v>
       </c>
       <c r="H93">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="12" t="s">
+      <c r="A94" s="10" t="s">
         <v>84</v>
       </c>
       <c r="B94">
@@ -3141,25 +3340,27 @@
       <c r="D94">
         <v>8</v>
       </c>
-      <c r="E94" s="9">
-        <f t="shared" si="1"/>
+      <c r="E94" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F94">
-        <v>44</v>
-      </c>
-      <c r="G94" s="9">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="G94" s="7">
+        <f t="shared" si="5"/>
+        <v>62.5</v>
       </c>
       <c r="H94">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.05</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="12" t="s">
+      <c r="A95" s="10" t="s">
         <v>83</v>
       </c>
       <c r="B95">
@@ -3168,25 +3369,27 @@
       <c r="D95">
         <v>6</v>
       </c>
-      <c r="E95" s="9">
-        <f t="shared" si="1"/>
+      <c r="E95" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F95">
-        <v>9</v>
-      </c>
-      <c r="G95" s="9">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="G95" s="7">
+        <f t="shared" si="5"/>
+        <v>16.666666666666668</v>
       </c>
       <c r="H95">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="12" t="s">
+      <c r="A96" s="10" t="s">
         <v>82</v>
       </c>
       <c r="B96">
@@ -3195,25 +3398,27 @@
       <c r="D96">
         <v>9</v>
       </c>
-      <c r="E96" s="9">
-        <f t="shared" si="1"/>
+      <c r="E96" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F96">
-        <v>16</v>
-      </c>
-      <c r="G96" s="9">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="G96" s="7">
+        <f t="shared" si="5"/>
+        <v>44.444444444444443</v>
       </c>
       <c r="H96">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="12" t="s">
+      <c r="A97" s="10" t="s">
         <v>81</v>
       </c>
       <c r="B97">
@@ -3222,25 +3427,27 @@
       <c r="D97">
         <v>32</v>
       </c>
-      <c r="E97" s="9">
-        <f t="shared" si="1"/>
+      <c r="E97" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F97">
-        <v>11</v>
-      </c>
-      <c r="G97" s="9">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="G97" s="7">
+        <f t="shared" si="5"/>
+        <v>15.625</v>
       </c>
       <c r="H97">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="12" t="s">
+      <c r="A98" s="10" t="s">
         <v>80</v>
       </c>
       <c r="B98">
@@ -3249,25 +3456,27 @@
       <c r="D98">
         <v>31</v>
       </c>
-      <c r="E98" s="9">
-        <f t="shared" si="1"/>
+      <c r="E98" s="7">
+        <f t="shared" si="4"/>
         <v>3.125</v>
       </c>
       <c r="F98">
-        <v>26</v>
-      </c>
-      <c r="G98" s="9">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="G98" s="7">
+        <f t="shared" si="5"/>
+        <v>21.875</v>
       </c>
       <c r="H98">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="12" t="s">
+      <c r="A99" s="10" t="s">
         <v>79</v>
       </c>
       <c r="B99">
@@ -3276,25 +3485,27 @@
       <c r="D99">
         <v>33</v>
       </c>
-      <c r="E99" s="9">
-        <f t="shared" si="1"/>
+      <c r="E99" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F99">
-        <v>39</v>
-      </c>
-      <c r="G99" s="9">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="G99" s="7">
+        <f t="shared" si="5"/>
+        <v>21.212121212121211</v>
       </c>
       <c r="H99">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="12" t="s">
+      <c r="A100" s="10" t="s">
         <v>78</v>
       </c>
       <c r="B100">
@@ -3303,25 +3514,27 @@
       <c r="D100">
         <v>57</v>
       </c>
-      <c r="E100" s="9">
-        <f t="shared" si="1"/>
+      <c r="E100" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F100">
-        <v>39</v>
-      </c>
-      <c r="G100" s="9">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="G100" s="7">
+        <f t="shared" si="5"/>
+        <v>21.05263157894737</v>
       </c>
       <c r="H100">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="12" t="s">
+      <c r="A101" s="10" t="s">
         <v>77</v>
       </c>
       <c r="B101">
@@ -3330,25 +3543,27 @@
       <c r="D101">
         <v>46</v>
       </c>
-      <c r="E101" s="9">
-        <f t="shared" si="1"/>
+      <c r="E101" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F101">
-        <v>45</v>
-      </c>
-      <c r="G101" s="9">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="G101" s="7">
+        <f t="shared" si="5"/>
+        <v>8.695652173913043</v>
       </c>
       <c r="H101">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="12" t="s">
+      <c r="A102" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B102">
@@ -3357,25 +3572,27 @@
       <c r="D102">
         <v>57</v>
       </c>
-      <c r="E102" s="9">
-        <f t="shared" si="1"/>
+      <c r="E102" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F102">
-        <v>69</v>
-      </c>
-      <c r="G102" s="9">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="G102" s="7">
+        <f t="shared" si="5"/>
+        <v>22.807017543859651</v>
       </c>
       <c r="H102">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" s="12" t="s">
+      <c r="A103" s="10" t="s">
         <v>75</v>
       </c>
       <c r="B103">
@@ -3384,25 +3601,27 @@
       <c r="D103">
         <v>14</v>
       </c>
-      <c r="E103" s="9">
-        <f t="shared" si="1"/>
+      <c r="E103" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F103">
-        <v>73</v>
-      </c>
-      <c r="G103" s="9">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="G103" s="7">
+        <f t="shared" si="5"/>
+        <v>42.857142857142854</v>
       </c>
       <c r="H103">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="12" t="s">
+      <c r="A104" s="10" t="s">
         <v>74</v>
       </c>
       <c r="B104">
@@ -3411,25 +3630,27 @@
       <c r="D104">
         <v>22</v>
       </c>
-      <c r="E104" s="9">
-        <f t="shared" si="1"/>
+      <c r="E104" s="7">
+        <f t="shared" si="4"/>
         <v>4.3478260869565215</v>
       </c>
       <c r="F104">
-        <v>66</v>
-      </c>
-      <c r="G104" s="9">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="G104" s="7">
+        <f t="shared" si="5"/>
+        <v>30.434782608695652</v>
       </c>
       <c r="H104">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.09</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" s="12" t="s">
+      <c r="A105" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B105">
@@ -3438,25 +3659,27 @@
       <c r="D105">
         <v>13</v>
       </c>
-      <c r="E105" s="9">
-        <f t="shared" si="1"/>
+      <c r="E105" s="7">
+        <f t="shared" si="4"/>
         <v>7.1428571428571432</v>
       </c>
       <c r="F105">
-        <v>2</v>
-      </c>
-      <c r="G105" s="9">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="G105" s="7">
+        <f t="shared" si="5"/>
+        <v>21.428571428571427</v>
       </c>
       <c r="H105">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>7.6999999999999999E-2</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106" s="12" t="s">
+      <c r="A106" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B106">
@@ -3465,25 +3688,27 @@
       <c r="D106">
         <v>50</v>
       </c>
-      <c r="E106" s="9">
-        <f t="shared" si="1"/>
+      <c r="E106" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106" s="9">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="G106" s="7">
+        <f t="shared" si="5"/>
+        <v>24</v>
       </c>
       <c r="H106">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>9.9000000000000005E-2</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" s="12" t="s">
+      <c r="A107" s="10" t="s">
         <v>71</v>
       </c>
       <c r="B107">
@@ -3492,25 +3717,27 @@
       <c r="D107">
         <v>54</v>
       </c>
-      <c r="E107" s="9">
-        <f t="shared" si="1"/>
+      <c r="E107" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F107">
-        <v>2</v>
-      </c>
-      <c r="G107" s="9">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="G107" s="7">
+        <f t="shared" si="5"/>
+        <v>27.777777777777779</v>
       </c>
       <c r="H107">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" s="12" t="s">
+      <c r="A108" s="10" t="s">
         <v>70</v>
       </c>
       <c r="B108">
@@ -3519,25 +3746,27 @@
       <c r="D108">
         <v>55</v>
       </c>
-      <c r="E108" s="9">
-        <f t="shared" si="1"/>
+      <c r="E108" s="7">
+        <f t="shared" si="4"/>
         <v>3.5087719298245612</v>
       </c>
       <c r="F108">
-        <v>7</v>
-      </c>
-      <c r="G108" s="9">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="G108" s="7">
+        <f t="shared" si="5"/>
+        <v>21.05263157894737</v>
       </c>
       <c r="H108">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" s="12" t="s">
+      <c r="A109" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B109">
@@ -3546,25 +3775,27 @@
       <c r="D109">
         <v>92</v>
       </c>
-      <c r="E109" s="9">
-        <f t="shared" si="1"/>
+      <c r="E109" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1</v>
-      </c>
-      <c r="G109" s="9">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="G109" s="7">
+        <f t="shared" si="5"/>
+        <v>25</v>
       </c>
       <c r="H109">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.1</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" s="12" t="s">
+      <c r="A110" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B110">
@@ -3573,25 +3804,27 @@
       <c r="D110">
         <v>86</v>
       </c>
-      <c r="E110" s="9">
-        <f t="shared" si="1"/>
+      <c r="E110" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F110">
-        <v>2</v>
-      </c>
-      <c r="G110" s="9">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="G110" s="7">
+        <f t="shared" si="5"/>
+        <v>15.116279069767442</v>
       </c>
       <c r="H110">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>9.2999999999999999E-2</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="14" t="s">
+      <c r="A111" s="12" t="s">
         <v>67</v>
       </c>
       <c r="B111">
@@ -3600,21 +3833,23 @@
       <c r="D111">
         <v>87</v>
       </c>
-      <c r="E111" s="9">
-        <f t="shared" si="1"/>
+      <c r="E111" s="7">
+        <f t="shared" si="4"/>
         <v>1.1363636363636365</v>
       </c>
       <c r="F111">
-        <v>2</v>
-      </c>
-      <c r="G111" s="9">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="G111" s="8">
+        <f t="shared" si="5"/>
+        <v>25</v>
       </c>
       <c r="H111">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
@@ -3630,19 +3865,22 @@
         <f>SUM(D76:D111)</f>
         <v>888</v>
       </c>
-      <c r="E112" s="11">
+      <c r="E112" s="9">
         <f>SUM(E76:E111)</f>
         <v>19.260818796001864</v>
       </c>
       <c r="F112" s="3"/>
-      <c r="G112" s="11">
+      <c r="G112" s="7">
         <f>SUM(G76:G111)</f>
-        <v>0</v>
-      </c>
-      <c r="H112" s="3"/>
+        <v>810.56131445645053</v>
+      </c>
+      <c r="H112" s="3">
+        <f>SUM(H76:H111)</f>
+        <v>1906</v>
+      </c>
       <c r="I112" s="3">
         <f>SUM(I76:I111)</f>
-        <v>0</v>
+        <v>1.9060000000000008</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3653,21 +3891,27 @@
         <v>1</v>
       </c>
       <c r="C114" s="5"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="8" t="s">
+      <c r="D114" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E114" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F114" s="5"/>
-      <c r="G114" s="8" t="s">
+      <c r="F114" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G114" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H114" s="5"/>
+      <c r="H114" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="I114" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A115" s="13" t="s">
+      <c r="A115" s="11" t="s">
         <v>122</v>
       </c>
       <c r="B115">
@@ -3676,22 +3920,27 @@
       <c r="D115">
         <v>1742</v>
       </c>
-      <c r="E115" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G115" s="9">
-        <v>0</v>
+      <c r="E115" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>1336</v>
+      </c>
+      <c r="G115" s="7">
+        <f t="shared" si="5"/>
+        <v>23.30654420206659</v>
       </c>
       <c r="H115">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <f>H115/1000</f>
+        <v>0.03</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" s="12" t="s">
+      <c r="A116" s="10" t="s">
         <v>121</v>
       </c>
       <c r="B116">
@@ -3700,22 +3949,27 @@
       <c r="D116">
         <v>3853</v>
       </c>
-      <c r="E116" s="9">
-        <f t="shared" si="1"/>
+      <c r="E116" s="7">
+        <f t="shared" si="4"/>
         <v>9.4051257935574881</v>
       </c>
-      <c r="G116" s="9">
+      <c r="F116">
+        <v>4253</v>
+      </c>
+      <c r="G116" s="7">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H116">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <f t="shared" ref="I116:I134" si="7">H116/1000</f>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" s="12" t="s">
+      <c r="A117" s="10" t="s">
         <v>120</v>
       </c>
       <c r="B117">
@@ -3724,22 +3978,27 @@
       <c r="D117">
         <v>5638</v>
       </c>
-      <c r="E117" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G117" s="9">
-        <v>0</v>
+      <c r="E117" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>5125</v>
+      </c>
+      <c r="G117" s="7">
+        <f t="shared" si="5"/>
+        <v>9.0989712664065276</v>
       </c>
       <c r="H117">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A118" s="12" t="s">
+      <c r="A118" s="10" t="s">
         <v>119</v>
       </c>
       <c r="B118">
@@ -3748,22 +4007,27 @@
       <c r="D118">
         <v>18453</v>
       </c>
-      <c r="E118" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G118" s="9">
-        <v>0</v>
+      <c r="E118" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>17113</v>
+      </c>
+      <c r="G118" s="7">
+        <f t="shared" si="5"/>
+        <v>7.2616918658212759</v>
       </c>
       <c r="H118">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A119" s="12" t="s">
+      <c r="A119" s="10" t="s">
         <v>118</v>
       </c>
       <c r="B119">
@@ -3772,22 +4036,27 @@
       <c r="D119">
         <v>17316</v>
       </c>
-      <c r="E119" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G119" s="9">
-        <v>0</v>
+      <c r="E119" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>17140</v>
+      </c>
+      <c r="G119" s="7">
+        <f t="shared" si="5"/>
+        <v>1.0164010164010164</v>
       </c>
       <c r="H119">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A120" s="12" t="s">
+      <c r="A120" s="10" t="s">
         <v>117</v>
       </c>
       <c r="B120">
@@ -3796,22 +4065,27 @@
       <c r="D120">
         <v>298</v>
       </c>
-      <c r="E120" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G120" s="9">
-        <v>0</v>
+      <c r="E120" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120" s="7">
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
       <c r="H120">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A121" s="12" t="s">
+      <c r="A121" s="10" t="s">
         <v>116</v>
       </c>
       <c r="B121">
@@ -3820,22 +4094,27 @@
       <c r="D121">
         <v>12478</v>
       </c>
-      <c r="E121" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G121" s="9">
-        <v>0</v>
+      <c r="E121" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>10163</v>
+      </c>
+      <c r="G121" s="7">
+        <f t="shared" si="5"/>
+        <v>18.552652668696908</v>
       </c>
       <c r="H121">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A122" s="12" t="s">
+      <c r="A122" s="10" t="s">
         <v>115</v>
       </c>
       <c r="B122">
@@ -3844,22 +4123,27 @@
       <c r="D122">
         <v>9405</v>
       </c>
-      <c r="E122" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G122" s="9">
-        <v>0</v>
+      <c r="E122" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>5632</v>
+      </c>
+      <c r="G122" s="7">
+        <f t="shared" si="5"/>
+        <v>40.116959064327489</v>
       </c>
       <c r="H122">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="12" t="s">
+      <c r="A123" s="10" t="s">
         <v>114</v>
       </c>
       <c r="B123">
@@ -3868,22 +4152,27 @@
       <c r="D123">
         <v>14847</v>
       </c>
-      <c r="E123" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G123" s="9">
-        <v>0</v>
+      <c r="E123" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>14132</v>
+      </c>
+      <c r="G123" s="7">
+        <f t="shared" si="5"/>
+        <v>4.8157877012191017</v>
       </c>
       <c r="H123">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" s="12" t="s">
+      <c r="A124" s="10" t="s">
         <v>113</v>
       </c>
       <c r="B124">
@@ -3892,22 +4181,27 @@
       <c r="D124">
         <v>17523</v>
       </c>
-      <c r="E124" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G124" s="9">
-        <v>0</v>
+      <c r="E124" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>13813</v>
+      </c>
+      <c r="G124" s="7">
+        <f t="shared" si="5"/>
+        <v>21.172173714546595</v>
       </c>
       <c r="H124">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A125" s="12" t="s">
+      <c r="A125" s="10" t="s">
         <v>112</v>
       </c>
       <c r="B125">
@@ -3916,22 +4210,27 @@
       <c r="D125">
         <v>17405</v>
       </c>
-      <c r="E125" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G125" s="9">
-        <v>0</v>
+      <c r="E125" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>16113</v>
+      </c>
+      <c r="G125" s="7">
+        <f t="shared" si="5"/>
+        <v>7.423154266015513</v>
       </c>
       <c r="H125">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>4.7E-2</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A126" s="12" t="s">
+      <c r="A126" s="10" t="s">
         <v>111</v>
       </c>
       <c r="B126">
@@ -3940,22 +4239,27 @@
       <c r="D126">
         <v>7125</v>
       </c>
-      <c r="E126" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G126" s="9">
-        <v>0</v>
+      <c r="E126" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>6460</v>
+      </c>
+      <c r="G126" s="7">
+        <f t="shared" si="5"/>
+        <v>9.3333333333333339</v>
       </c>
       <c r="H126">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A127" s="12" t="s">
+      <c r="A127" s="10" t="s">
         <v>110</v>
       </c>
       <c r="B127">
@@ -3964,22 +4268,27 @@
       <c r="D127">
         <v>1493</v>
       </c>
-      <c r="E127" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G127" s="9">
-        <v>0</v>
+      <c r="E127" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>1315</v>
+      </c>
+      <c r="G127" s="7">
+        <f t="shared" si="5"/>
+        <v>11.922304085733423</v>
       </c>
       <c r="H127">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A128" s="12" t="s">
+      <c r="A128" s="10" t="s">
         <v>109</v>
       </c>
       <c r="B128">
@@ -3988,22 +4297,27 @@
       <c r="D128">
         <v>30464</v>
       </c>
-      <c r="E128" s="9">
-        <f t="shared" si="1"/>
+      <c r="E128" s="7">
+        <f t="shared" si="4"/>
         <v>6.1288632792037721</v>
       </c>
-      <c r="G128" s="9">
-        <v>0</v>
+      <c r="F128">
+        <v>29205</v>
+      </c>
+      <c r="G128" s="7">
+        <f t="shared" si="5"/>
+        <v>10.008319723908421</v>
       </c>
       <c r="H128">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A129" s="12" t="s">
+      <c r="A129" s="10" t="s">
         <v>108</v>
       </c>
       <c r="B129">
@@ -4012,22 +4326,27 @@
       <c r="D129">
         <v>30732</v>
       </c>
-      <c r="E129" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G129" s="9">
-        <v>0</v>
+      <c r="E129" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>26488</v>
+      </c>
+      <c r="G129" s="7">
+        <f t="shared" si="5"/>
+        <v>13.809709748796044</v>
       </c>
       <c r="H129">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>5.7000000000000002E-2</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A130" s="12" t="s">
+      <c r="A130" s="10" t="s">
         <v>107</v>
       </c>
       <c r="B130">
@@ -4036,22 +4355,27 @@
       <c r="D130">
         <v>27791</v>
       </c>
-      <c r="E130" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G130" s="9">
-        <v>0</v>
+      <c r="E130" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>27444</v>
+      </c>
+      <c r="G130" s="7">
+        <f t="shared" si="5"/>
+        <v>1.2486056637040768</v>
       </c>
       <c r="H130">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A131" s="12" t="s">
+      <c r="A131" s="10" t="s">
         <v>106</v>
       </c>
       <c r="B131">
@@ -4060,19 +4384,27 @@
       <c r="D131">
         <v>10533</v>
       </c>
-      <c r="E131" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G131" s="9">
-        <v>0</v>
+      <c r="E131" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>8991</v>
+      </c>
+      <c r="G131" s="7">
+        <f t="shared" si="5"/>
+        <v>14.639703788094559</v>
+      </c>
+      <c r="H131">
+        <v>53</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A132" s="12" t="s">
+      <c r="A132" s="10" t="s">
         <v>105</v>
       </c>
       <c r="B132">
@@ -4081,19 +4413,27 @@
       <c r="D132">
         <v>4001</v>
       </c>
-      <c r="E132" s="9">
-        <f t="shared" ref="E132:E134" si="2">100*(B132-D132)/B132</f>
+      <c r="E132" s="7">
+        <f t="shared" ref="E132:E134" si="8">100*(B132-D132)/B132</f>
         <v>6.431244153414406</v>
       </c>
-      <c r="G132" s="9">
-        <v>0</v>
+      <c r="F132">
+        <v>4276</v>
+      </c>
+      <c r="G132" s="7">
+        <f t="shared" ref="G132:G134" si="9">100*(B132-F132)/B132</f>
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>49</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A133" s="12" t="s">
+      <c r="A133" s="10" t="s">
         <v>104</v>
       </c>
       <c r="B133">
@@ -4102,19 +4442,27 @@
       <c r="D133">
         <v>28462</v>
       </c>
-      <c r="E133" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G133" s="9">
-        <v>0</v>
+      <c r="E133" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>23016</v>
+      </c>
+      <c r="G133" s="7">
+        <f t="shared" si="9"/>
+        <v>19.134284308903098</v>
+      </c>
+      <c r="H133">
+        <v>63</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>6.3E-2</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="14" t="s">
+      <c r="A134" s="12" t="s">
         <v>103</v>
       </c>
       <c r="B134">
@@ -4123,15 +4471,23 @@
       <c r="D134">
         <v>26873</v>
       </c>
-      <c r="E134" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G134" s="9">
-        <v>0</v>
+      <c r="E134" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>20048</v>
+      </c>
+      <c r="G134" s="8">
+        <f t="shared" si="9"/>
+        <v>25.397238864287576</v>
+      </c>
+      <c r="H134">
+        <v>60</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0.06</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -4147,19 +4503,25 @@
         <f>SUM(D115:D134)</f>
         <v>286432</v>
       </c>
-      <c r="E135" s="11">
+      <c r="E135" s="9">
         <f>SUM(E115:E134)</f>
         <v>21.965233226175666</v>
       </c>
-      <c r="F135" s="3"/>
-      <c r="G135" s="11">
+      <c r="F135" s="3">
+        <f>SUM(F115:F134)</f>
+        <v>252063</v>
+      </c>
+      <c r="G135" s="13">
         <f>SUM(G115:G134)</f>
-        <v>0</v>
-      </c>
-      <c r="H135" s="3"/>
+        <v>338.25783528226157</v>
+      </c>
+      <c r="H135" s="3">
+        <f>SUM(H115:H134)</f>
+        <v>896</v>
+      </c>
       <c r="I135" s="3">
         <f>SUM(I115:I134)</f>
-        <v>0</v>
+        <v>0.89600000000000013</v>
       </c>
     </row>
   </sheetData>

--- a/Tablas.xlsx
+++ b/Tablas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="134">
   <si>
     <t>Instancia</t>
   </si>
@@ -405,13 +405,34 @@
   </si>
   <si>
     <t>theur(ms)</t>
+  </si>
+  <si>
+    <t>Gabriel Gimenez</t>
+  </si>
+  <si>
+    <t>Guillermo Betancourt</t>
+  </si>
+  <si>
+    <t>12-11006</t>
+  </si>
+  <si>
+    <t>11-10103</t>
+  </si>
+  <si>
+    <t>Profesor: Guillermo Palma</t>
+  </si>
+  <si>
+    <t>Diseño de Algoritmos I - CI5651</t>
+  </si>
+  <si>
+    <t>Tabla de resultados - Proyecto I - PRPP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,6 +443,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -497,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -521,6 +550,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,6 +566,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>187793</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="http://www.usb.ve/conocer/corporativa/archivos/logos/logotipo/logotipo.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="213360" y="190500"/>
+          <a:ext cx="2011680" cy="728813"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -801,3731 +891,3768 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I135"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G141" sqref="G141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" style="7"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G2" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G3" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A7" s="15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="14" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B10">
         <v>6266</v>
       </c>
-      <c r="D2">
+      <c r="D10">
         <v>6247</v>
       </c>
-      <c r="E2" s="7">
-        <f>100*(B2-D2)/B2</f>
+      <c r="E10" s="7">
+        <f>100*(B10-D10)/B10</f>
         <v>0.30322374720714967</v>
       </c>
-      <c r="F2">
+      <c r="F10">
         <v>4422</v>
       </c>
-      <c r="G2" s="7">
-        <f>100*(B2-F2)/B2</f>
+      <c r="G10" s="7">
+        <f>100*(B10-F10)/B10</f>
         <v>29.428662623683369</v>
       </c>
-      <c r="H2">
+      <c r="H10">
         <v>84</v>
       </c>
-      <c r="I2">
-        <f>H2/1000</f>
+      <c r="I10">
+        <f>H10/1000</f>
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B11">
         <v>4372</v>
       </c>
-      <c r="D3">
+      <c r="D11">
         <v>4372</v>
       </c>
-      <c r="E3" s="8">
-        <f>100*(B3-D3)/B3</f>
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="E11" s="8">
+        <f>100*(B11-D11)/B11</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>3315</v>
       </c>
-      <c r="G3" s="8">
-        <f>100*(B3-F3)/B3</f>
+      <c r="G11" s="8">
+        <f>100*(B11-F11)/B11</f>
         <v>24.176578225068617</v>
       </c>
-      <c r="H3">
+      <c r="H11">
         <v>78</v>
       </c>
-      <c r="I3">
-        <f>H3/1000</f>
+      <c r="I11">
+        <f>H11/1000</f>
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="3">
-        <f>SUM(B2:B3)</f>
+      <c r="B12" s="3">
+        <f>SUM(B10:B11)</f>
         <v>10638</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3">
-        <f>SUM(D2:D3)</f>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3">
+        <f t="shared" ref="D12:I12" si="0">SUM(D10:D11)</f>
         <v>10619</v>
-      </c>
-      <c r="E4" s="7">
-        <f>SUM(E2:E3)</f>
-        <v>0.30322374720714967</v>
-      </c>
-      <c r="F4" s="3">
-        <f>SUM(F2:F3)</f>
-        <v>7737</v>
-      </c>
-      <c r="G4" s="7">
-        <f>SUM(G2:G3)</f>
-        <v>53.60524084875199</v>
-      </c>
-      <c r="H4" s="3">
-        <f>SUM(H2:H3)</f>
-        <v>162</v>
-      </c>
-      <c r="I4" s="3">
-        <f>SUM(I2:I3)</f>
-        <v>0.16200000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" s="7">
-        <f t="shared" ref="E7:E67" si="0">100*(B7-D7)/B7</f>
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7" s="7">
-        <f t="shared" ref="G4:G67" si="1">100*(B7-F7)/B7</f>
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>24</v>
-      </c>
-      <c r="I7">
-        <f>H7/1000</f>
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8">
-        <v>66</v>
-      </c>
-      <c r="D8">
-        <v>66</v>
-      </c>
-      <c r="E8" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>38</v>
-      </c>
-      <c r="G8" s="7">
-        <f t="shared" si="1"/>
-        <v>42.424242424242422</v>
-      </c>
-      <c r="H8">
-        <v>28</v>
-      </c>
-      <c r="I8">
-        <f t="shared" ref="I8:I29" si="2">H8/1000</f>
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9">
-        <v>56</v>
-      </c>
-      <c r="D9">
-        <v>56</v>
-      </c>
-      <c r="E9" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>38</v>
-      </c>
-      <c r="G9" s="7">
-        <f t="shared" si="1"/>
-        <v>32.142857142857146</v>
-      </c>
-      <c r="H9">
-        <v>32</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="2"/>
-        <v>3.2000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10">
-        <v>45</v>
-      </c>
-      <c r="D10">
-        <v>45</v>
-      </c>
-      <c r="E10" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>42</v>
-      </c>
-      <c r="G10" s="7">
-        <f t="shared" si="1"/>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="H10">
-        <v>30</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="2"/>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11">
-        <v>35</v>
-      </c>
-      <c r="D11">
-        <v>35</v>
-      </c>
-      <c r="E11" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>35</v>
-      </c>
-      <c r="G11" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>29</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="2"/>
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12">
-        <v>60</v>
-      </c>
-      <c r="D12">
-        <v>60</v>
       </c>
       <c r="E12" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>43</v>
+        <v>0.30322374720714967</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>7737</v>
       </c>
       <c r="G12" s="7">
-        <f t="shared" si="1"/>
-        <v>28.333333333333332</v>
-      </c>
-      <c r="H12">
-        <v>31</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="2"/>
-        <v>3.1E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>89</v>
-      </c>
-      <c r="D13">
-        <v>89</v>
-      </c>
-      <c r="E13" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>43</v>
-      </c>
-      <c r="G13" s="7">
-        <f t="shared" si="1"/>
-        <v>51.685393258426963</v>
-      </c>
-      <c r="H13">
-        <v>32</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="2"/>
-        <v>3.2000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14">
-        <v>90</v>
-      </c>
-      <c r="D14">
-        <v>90</v>
-      </c>
-      <c r="E14" s="7">
+        <v>53.60524084875199</v>
+      </c>
+      <c r="H12" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7">
-        <f t="shared" si="1"/>
-        <v>11.111111111111111</v>
-      </c>
-      <c r="H14">
-        <v>29</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="2"/>
-        <v>2.9000000000000001E-2</v>
+        <v>162</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" ref="E15:E38" si="1">100*(B15-D15)/B15</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" ref="G15:G38" si="2">100*(B15-F15)/B15</f>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>24</v>
+      </c>
+      <c r="I15">
+        <f>H15/1000</f>
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>66</v>
+      </c>
+      <c r="D16">
+        <v>66</v>
+      </c>
+      <c r="E16" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>38</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="2"/>
+        <v>42.424242424242422</v>
+      </c>
+      <c r="H16">
+        <v>28</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ref="I16:I37" si="3">H16/1000</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>56</v>
+      </c>
+      <c r="D17">
+        <v>56</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>38</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="2"/>
+        <v>32.142857142857146</v>
+      </c>
+      <c r="H17">
+        <v>32</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>45</v>
+      </c>
+      <c r="D18">
+        <v>45</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>42</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="2"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="H18">
+        <v>30</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>35</v>
+      </c>
+      <c r="D19">
+        <v>35</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>35</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>29</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>60</v>
+      </c>
+      <c r="D20">
+        <v>60</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>43</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="2"/>
+        <v>28.333333333333332</v>
+      </c>
+      <c r="H20">
+        <v>31</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>89</v>
+      </c>
+      <c r="D21">
+        <v>89</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>43</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="2"/>
+        <v>51.685393258426963</v>
+      </c>
+      <c r="H21">
+        <v>32</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>90</v>
+      </c>
+      <c r="D22">
+        <v>90</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>80</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="2"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="H22">
+        <v>29</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B15">
+      <c r="B23">
         <v>46</v>
       </c>
-      <c r="D15">
+      <c r="D23">
         <v>45</v>
       </c>
-      <c r="E15" s="7">
-        <f t="shared" si="0"/>
-        <v>2.1739130434782608</v>
-      </c>
-      <c r="F15">
-        <v>45</v>
-      </c>
-      <c r="G15" s="7">
+      <c r="E23" s="7">
         <f t="shared" si="1"/>
         <v>2.1739130434782608</v>
       </c>
-      <c r="H15">
+      <c r="F23">
+        <v>45</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="2"/>
+        <v>2.1739130434782608</v>
+      </c>
+      <c r="H23">
         <v>28</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="2"/>
+      <c r="I23">
+        <f t="shared" si="3"/>
         <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>41</v>
-      </c>
-      <c r="D16">
-        <v>41</v>
-      </c>
-      <c r="E16" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>38</v>
-      </c>
-      <c r="G16" s="7">
-        <f t="shared" si="1"/>
-        <v>7.3170731707317076</v>
-      </c>
-      <c r="H16">
-        <v>29</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="2"/>
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>9</v>
-      </c>
-      <c r="D17">
-        <v>9</v>
-      </c>
-      <c r="E17" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>9</v>
-      </c>
-      <c r="G17" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>48</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="2"/>
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
-      </c>
-      <c r="E18" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>10</v>
-      </c>
-      <c r="G18" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>28</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="2"/>
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
-      <c r="E19" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>5</v>
-      </c>
-      <c r="G19" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>24</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="2"/>
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20">
-        <v>128</v>
-      </c>
-      <c r="D20">
-        <v>128</v>
-      </c>
-      <c r="E20" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>108</v>
-      </c>
-      <c r="G20" s="7">
-        <f t="shared" si="1"/>
-        <v>15.625</v>
-      </c>
-      <c r="H20">
-        <v>35</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="2"/>
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21">
-        <v>43</v>
-      </c>
-      <c r="D21">
-        <v>39</v>
-      </c>
-      <c r="E21" s="7">
-        <f t="shared" si="0"/>
-        <v>9.3023255813953494</v>
-      </c>
-      <c r="F21">
-        <v>36</v>
-      </c>
-      <c r="G21" s="7">
-        <f t="shared" si="1"/>
-        <v>16.279069767441861</v>
-      </c>
-      <c r="H21">
-        <v>30</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="2"/>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22">
-        <v>113</v>
-      </c>
-      <c r="D22">
-        <v>106</v>
-      </c>
-      <c r="E22" s="7">
-        <f t="shared" si="0"/>
-        <v>6.1946902654867255</v>
-      </c>
-      <c r="F22">
-        <v>81</v>
-      </c>
-      <c r="G22" s="7">
-        <f t="shared" si="1"/>
-        <v>28.318584070796462</v>
-      </c>
-      <c r="H22">
-        <v>41</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="2"/>
-        <v>4.1000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23">
-        <v>42</v>
-      </c>
-      <c r="D23">
-        <v>39</v>
-      </c>
-      <c r="E23" s="7">
-        <f t="shared" si="0"/>
-        <v>7.1428571428571432</v>
-      </c>
-      <c r="F23">
-        <v>37</v>
-      </c>
-      <c r="G23" s="7">
-        <f t="shared" si="1"/>
-        <v>11.904761904761905</v>
-      </c>
-      <c r="H23">
-        <v>32</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="2"/>
-        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B24">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D24">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E24" s="7">
-        <f t="shared" si="0"/>
-        <v>19.047619047619047</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="G24" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>7.3170731707317076</v>
       </c>
       <c r="H24">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I24">
-        <f t="shared" si="2"/>
-        <v>3.4000000000000002E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B25">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="E25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F25">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="G25" s="7">
-        <f t="shared" si="1"/>
-        <v>16.666666666666668</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="I25">
-        <f t="shared" si="2"/>
-        <v>3.4000000000000002E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B26">
-        <v>246</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>246</v>
+        <v>10</v>
       </c>
       <c r="E26" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F26">
-        <v>177</v>
+        <v>10</v>
       </c>
       <c r="G26" s="7">
-        <f t="shared" si="1"/>
-        <v>28.048780487804876</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="I26">
-        <f t="shared" si="2"/>
-        <v>4.4999999999999998E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B27">
-        <v>258</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>252</v>
+        <v>5</v>
       </c>
       <c r="E27" s="7">
-        <f t="shared" si="0"/>
-        <v>2.3255813953488373</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>196</v>
+        <v>5</v>
       </c>
       <c r="G27" s="7">
-        <f t="shared" si="1"/>
-        <v>24.031007751937985</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I27">
-        <f t="shared" si="2"/>
-        <v>4.3999999999999997E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B28">
-        <v>474</v>
+        <v>128</v>
       </c>
       <c r="D28">
-        <v>474</v>
+        <v>128</v>
       </c>
       <c r="E28" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F28">
-        <v>269</v>
+        <v>108</v>
       </c>
       <c r="G28" s="7">
-        <f t="shared" si="1"/>
-        <v>43.248945147679322</v>
+        <f t="shared" si="2"/>
+        <v>15.625</v>
       </c>
       <c r="H28">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="I28">
-        <f t="shared" si="2"/>
-        <v>6.5000000000000002E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B29">
-        <v>360</v>
+        <v>43</v>
       </c>
       <c r="D29">
-        <v>360</v>
+        <v>39</v>
       </c>
       <c r="E29" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.3023255813953494</v>
       </c>
       <c r="F29">
-        <v>250</v>
+        <v>36</v>
       </c>
       <c r="G29" s="7">
+        <f t="shared" si="2"/>
+        <v>16.279069767441861</v>
+      </c>
+      <c r="H29">
+        <v>30</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <v>113</v>
+      </c>
+      <c r="D30">
+        <v>106</v>
+      </c>
+      <c r="E30" s="7">
         <f t="shared" si="1"/>
-        <v>30.555555555555557</v>
-      </c>
-      <c r="H29">
-        <v>56</v>
-      </c>
-      <c r="I29">
+        <v>6.1946902654867255</v>
+      </c>
+      <c r="F30">
+        <v>81</v>
+      </c>
+      <c r="G30" s="7">
         <f t="shared" si="2"/>
-        <v>5.6000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30">
-        <v>237</v>
-      </c>
-      <c r="D30">
-        <v>230</v>
-      </c>
-      <c r="E30" s="8">
-        <f t="shared" si="0"/>
-        <v>2.9535864978902953</v>
-      </c>
-      <c r="F30">
-        <v>182</v>
-      </c>
-      <c r="G30" s="8">
+        <v>28.318584070796462</v>
+      </c>
+      <c r="H30">
+        <v>41</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31">
+        <v>42</v>
+      </c>
+      <c r="D31">
+        <v>39</v>
+      </c>
+      <c r="E31" s="7">
         <f t="shared" si="1"/>
-        <v>23.206751054852322</v>
-      </c>
-      <c r="H30">
-        <v>46</v>
-      </c>
-      <c r="I30">
-        <f>H30/1000</f>
-        <v>4.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B31" s="3">
-        <f>SUM(B7:B30)</f>
-        <v>2567</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3">
-        <f>SUM(D7:D30)</f>
-        <v>2535</v>
-      </c>
-      <c r="E31" s="7">
-        <f>SUM(E7:E30)</f>
-        <v>49.140572974075653</v>
-      </c>
-      <c r="F31" s="3"/>
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="F31">
+        <v>37</v>
+      </c>
       <c r="G31" s="7">
-        <f>SUM(G7:G30)</f>
-        <v>419.73971255834448</v>
-      </c>
-      <c r="H31" s="3">
-        <f>SUM(H7:H30)</f>
-        <v>854</v>
-      </c>
-      <c r="I31" s="3">
-        <f>SUM(I7:I30)</f>
-        <v>0.85400000000000031</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>11.904761904761905</v>
+      </c>
+      <c r="H31">
+        <v>32</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <v>21</v>
+      </c>
+      <c r="D32">
+        <v>17</v>
+      </c>
+      <c r="E32" s="7">
+        <f t="shared" si="1"/>
+        <v>19.047619047619047</v>
+      </c>
+      <c r="F32">
+        <v>21</v>
+      </c>
+      <c r="G32" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>34</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <v>90</v>
+      </c>
+      <c r="D33">
+        <v>90</v>
+      </c>
+      <c r="E33" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>75</v>
+      </c>
+      <c r="G33" s="7">
+        <f t="shared" si="2"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="H33">
+        <v>34</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>246</v>
+      </c>
+      <c r="D34">
+        <v>246</v>
+      </c>
+      <c r="E34" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>177</v>
+      </c>
+      <c r="G34" s="7">
+        <f t="shared" si="2"/>
+        <v>28.048780487804876</v>
+      </c>
+      <c r="H34">
+        <v>45</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
-        <v>66</v>
+      <c r="A35" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="B35">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="D35">
-        <v>109</v>
+        <v>252</v>
       </c>
       <c r="E35" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>2.3255813953488373</v>
       </c>
       <c r="F35">
-        <v>109</v>
+        <v>196</v>
       </c>
       <c r="G35" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>24.031007751937985</v>
       </c>
       <c r="H35">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I35">
-        <f>H35/1000</f>
-        <v>0.03</v>
+        <f t="shared" si="3"/>
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>474</v>
+      </c>
+      <c r="D36">
+        <v>474</v>
+      </c>
+      <c r="E36" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>269</v>
+      </c>
+      <c r="G36" s="7">
+        <f t="shared" si="2"/>
+        <v>43.248945147679322</v>
+      </c>
+      <c r="H36">
         <v>65</v>
       </c>
-      <c r="B36">
-        <v>115</v>
-      </c>
-      <c r="D36">
-        <v>115</v>
-      </c>
-      <c r="E36" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>76</v>
-      </c>
-      <c r="G36" s="7">
-        <f t="shared" si="1"/>
-        <v>33.913043478260867</v>
-      </c>
-      <c r="H36">
-        <v>27</v>
-      </c>
       <c r="I36">
-        <f t="shared" ref="I36:I70" si="3">H36/1000</f>
-        <v>2.7E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B37">
-        <v>274</v>
+        <v>360</v>
       </c>
       <c r="D37">
-        <v>274</v>
+        <v>360</v>
       </c>
       <c r="E37" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F37">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="G37" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>30.555555555555557</v>
       </c>
       <c r="H37">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="I37">
         <f t="shared" si="3"/>
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="B38">
-        <v>172</v>
+        <v>237</v>
       </c>
       <c r="D38">
-        <v>172</v>
-      </c>
-      <c r="E38" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>230</v>
+      </c>
+      <c r="E38" s="8">
+        <f t="shared" si="1"/>
+        <v>2.9535864978902953</v>
       </c>
       <c r="F38">
-        <v>170</v>
-      </c>
-      <c r="G38" s="7">
-        <f t="shared" si="1"/>
-        <v>1.1627906976744187</v>
+        <v>182</v>
+      </c>
+      <c r="G38" s="8">
+        <f t="shared" si="2"/>
+        <v>23.206751054852322</v>
       </c>
       <c r="H38">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="I38">
-        <f t="shared" si="3"/>
-        <v>2.9000000000000001E-2</v>
+        <f>H38/1000</f>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39">
-        <v>210</v>
-      </c>
-      <c r="D39">
-        <v>210</v>
+      <c r="A39" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="3">
+        <f>SUM(B15:B38)</f>
+        <v>2567</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3">
+        <f>SUM(D15:D38)</f>
+        <v>2535</v>
       </c>
       <c r="E39" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>101</v>
-      </c>
+        <f>SUM(E15:E38)</f>
+        <v>49.140572974075653</v>
+      </c>
+      <c r="F39" s="3"/>
       <c r="G39" s="7">
-        <f t="shared" si="1"/>
-        <v>51.904761904761905</v>
-      </c>
-      <c r="H39">
-        <v>29</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="3"/>
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40">
-        <v>313</v>
-      </c>
-      <c r="D40">
-        <v>313</v>
-      </c>
-      <c r="E40" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>286</v>
-      </c>
-      <c r="G40" s="7">
-        <f t="shared" si="1"/>
-        <v>8.6261980830670932</v>
-      </c>
-      <c r="H40">
-        <v>35</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="3"/>
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41">
-        <v>166</v>
-      </c>
-      <c r="D41">
-        <v>166</v>
-      </c>
-      <c r="E41" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F41">
+        <f>SUM(G15:G38)/24</f>
+        <v>17.48915468993102</v>
+      </c>
+      <c r="H39" s="3">
+        <f>SUM(H15:H38)</f>
+        <v>854</v>
+      </c>
+      <c r="I39" s="3">
+        <f>SUM(I15:I38)</f>
+        <v>0.85400000000000031</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="G41" s="7">
-        <f t="shared" si="1"/>
-        <v>25.301204819277107</v>
-      </c>
-      <c r="H41">
-        <v>27</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="3"/>
-        <v>2.7E-2</v>
+      <c r="G41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
-        <v>59</v>
+      <c r="A42" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="B42">
-        <v>260</v>
+        <v>109</v>
       </c>
       <c r="D42">
-        <v>260</v>
+        <v>109</v>
       </c>
       <c r="E42" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E42:E51" si="4">100*(B42-D42)/B42</f>
         <v>0</v>
       </c>
       <c r="F42">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="G42" s="7">
-        <f t="shared" si="1"/>
-        <v>38.07692307692308</v>
+        <f t="shared" ref="G42:G51" si="5">100*(B42-F42)/B42</f>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I42">
-        <f t="shared" si="3"/>
-        <v>2.7E-2</v>
+        <f>H42/1000</f>
+        <v>0.03</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B43">
-        <v>457</v>
+        <v>115</v>
       </c>
       <c r="D43">
-        <v>457</v>
+        <v>115</v>
       </c>
       <c r="E43" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F43">
-        <v>457</v>
+        <v>76</v>
       </c>
       <c r="G43" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>33.913043478260867</v>
       </c>
       <c r="H43">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I43">
-        <f t="shared" si="3"/>
-        <v>2.8000000000000001E-2</v>
+        <f t="shared" ref="I43:I77" si="6">H43/1000</f>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B44">
-        <v>160</v>
+        <v>274</v>
       </c>
       <c r="D44">
-        <v>160</v>
+        <v>274</v>
       </c>
       <c r="E44" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F44">
-        <v>160</v>
+        <v>274</v>
       </c>
       <c r="G44" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H44">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I44">
-        <f t="shared" si="3"/>
-        <v>3.6999999999999998E-2</v>
+        <f t="shared" si="6"/>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="E45" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="G45" s="7">
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1.1627906976744187</v>
       </c>
       <c r="H45">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I45">
-        <f t="shared" si="3"/>
-        <v>3.6999999999999998E-2</v>
+        <f t="shared" si="6"/>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B46">
-        <v>398</v>
+        <v>210</v>
       </c>
       <c r="D46">
-        <v>398</v>
+        <v>210</v>
       </c>
       <c r="E46" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F46">
-        <v>396</v>
+        <v>101</v>
       </c>
       <c r="G46" s="7">
-        <f t="shared" si="1"/>
-        <v>0.50251256281407031</v>
+        <f t="shared" si="5"/>
+        <v>51.904761904761905</v>
       </c>
       <c r="H46">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I46">
-        <f t="shared" si="3"/>
-        <v>3.7999999999999999E-2</v>
+        <f t="shared" si="6"/>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B47">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="D47">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="E47" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F47">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="G47" s="7">
-        <f t="shared" si="1"/>
-        <v>11.428571428571429</v>
+        <f t="shared" si="5"/>
+        <v>8.6261980830670932</v>
       </c>
       <c r="H47">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I47">
-        <f t="shared" si="3"/>
-        <v>3.7999999999999999E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B48">
-        <v>717</v>
+        <v>166</v>
       </c>
       <c r="D48">
-        <v>662</v>
+        <v>166</v>
       </c>
       <c r="E48" s="7">
-        <f t="shared" si="0"/>
-        <v>7.670850767085077</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>556</v>
+        <v>124</v>
       </c>
       <c r="G48" s="7">
-        <f t="shared" si="1"/>
-        <v>22.454672245467226</v>
+        <f t="shared" si="5"/>
+        <v>25.301204819277107</v>
       </c>
       <c r="H48">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I48">
-        <f t="shared" si="3"/>
-        <v>3.9E-2</v>
+        <f t="shared" si="6"/>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>810</v>
+        <v>260</v>
       </c>
       <c r="D49">
-        <v>810</v>
+        <v>260</v>
       </c>
       <c r="E49" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F49">
-        <v>675</v>
+        <v>161</v>
       </c>
       <c r="G49" s="7">
-        <f t="shared" si="1"/>
-        <v>16.666666666666668</v>
+        <f t="shared" si="5"/>
+        <v>38.07692307692308</v>
       </c>
       <c r="H49">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I49">
-        <f t="shared" si="3"/>
-        <v>3.9E-2</v>
+        <f t="shared" si="6"/>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>702</v>
+        <v>457</v>
       </c>
       <c r="D50">
-        <v>702</v>
+        <v>457</v>
       </c>
       <c r="E50" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F50">
-        <v>518</v>
+        <v>457</v>
       </c>
       <c r="G50" s="7">
-        <f t="shared" si="1"/>
-        <v>26.210826210826212</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I50">
-        <f t="shared" si="3"/>
-        <v>3.5999999999999997E-2</v>
+        <f t="shared" si="6"/>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="D51">
-        <v>965</v>
+        <v>160</v>
       </c>
       <c r="E51" s="7">
-        <f t="shared" si="0"/>
-        <v>1.5306122448979591</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>903</v>
+        <v>160</v>
       </c>
       <c r="G51" s="7">
-        <f t="shared" si="1"/>
-        <v>7.8571428571428568</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I51">
-        <f t="shared" si="3"/>
-        <v>3.7999999999999999E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>1115</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>1070</v>
+        <v>0</v>
       </c>
       <c r="E52" s="7">
-        <f t="shared" si="0"/>
-        <v>4.0358744394618835</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>842</v>
+        <v>0</v>
       </c>
       <c r="G52" s="7">
-        <f t="shared" si="1"/>
-        <v>24.484304932735427</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I52">
-        <f t="shared" si="3"/>
-        <v>4.2999999999999997E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B53">
-        <v>515</v>
+        <v>398</v>
       </c>
       <c r="D53">
-        <v>515</v>
+        <v>398</v>
       </c>
       <c r="E53" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E53:E77" si="7">100*(B53-D53)/B53</f>
         <v>0</v>
       </c>
       <c r="F53">
-        <v>489</v>
+        <v>396</v>
       </c>
       <c r="G53" s="7">
-        <f t="shared" si="1"/>
-        <v>5.0485436893203888</v>
+        <f t="shared" ref="G53:G77" si="8">100*(B53-F53)/B53</f>
+        <v>0.50251256281407031</v>
       </c>
       <c r="H53">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="I53">
-        <f t="shared" si="3"/>
-        <v>5.0999999999999997E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B54">
-        <v>509</v>
+        <v>280</v>
       </c>
       <c r="D54">
-        <v>509</v>
+        <v>280</v>
       </c>
       <c r="E54" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F54">
-        <v>411</v>
+        <v>248</v>
       </c>
       <c r="G54" s="7">
-        <f t="shared" si="1"/>
-        <v>19.253438113948921</v>
+        <f t="shared" si="8"/>
+        <v>11.428571428571429</v>
       </c>
       <c r="H54">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="I54">
-        <f t="shared" si="3"/>
-        <v>5.3999999999999999E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>457</v>
+        <v>717</v>
       </c>
       <c r="D55">
-        <v>457</v>
+        <v>662</v>
       </c>
       <c r="E55" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>7.670850767085077</v>
       </c>
       <c r="F55">
-        <v>432</v>
+        <v>556</v>
       </c>
       <c r="G55" s="7">
-        <f t="shared" si="1"/>
-        <v>5.4704595185995624</v>
+        <f t="shared" si="8"/>
+        <v>22.454672245467226</v>
       </c>
       <c r="H55">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="I55">
-        <f t="shared" si="3"/>
-        <v>5.5E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.9E-2</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B56">
-        <v>1000</v>
+        <v>810</v>
       </c>
       <c r="D56">
-        <v>976</v>
+        <v>810</v>
       </c>
       <c r="E56" s="7">
-        <f t="shared" si="0"/>
-        <v>2.4</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>801</v>
+        <v>675</v>
       </c>
       <c r="G56" s="7">
-        <f t="shared" si="1"/>
-        <v>19.899999999999999</v>
+        <f t="shared" si="8"/>
+        <v>16.666666666666668</v>
       </c>
       <c r="H56">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="I56">
-        <f t="shared" si="3"/>
-        <v>5.8999999999999997E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.9E-2</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B57">
-        <v>989</v>
+        <v>702</v>
       </c>
       <c r="D57">
-        <v>989</v>
+        <v>702</v>
       </c>
       <c r="E57" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F57">
-        <v>654</v>
+        <v>518</v>
       </c>
       <c r="G57" s="7">
-        <f t="shared" si="1"/>
-        <v>33.872598584428715</v>
+        <f t="shared" si="8"/>
+        <v>26.210826210826212</v>
       </c>
       <c r="H57">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="I57">
-        <f t="shared" si="3"/>
-        <v>5.3999999999999999E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B58">
-        <v>968</v>
+        <v>980</v>
       </c>
       <c r="D58">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="E58" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1.5306122448979591</v>
       </c>
       <c r="F58">
-        <v>674</v>
+        <v>903</v>
       </c>
       <c r="G58" s="7">
-        <f t="shared" si="1"/>
-        <v>30.371900826446282</v>
+        <f t="shared" si="8"/>
+        <v>7.8571428571428568</v>
       </c>
       <c r="H58">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="I58">
-        <f t="shared" si="3"/>
-        <v>5.5E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B59">
-        <v>1463</v>
+        <v>1115</v>
       </c>
       <c r="D59">
-        <v>1463</v>
+        <v>1070</v>
       </c>
       <c r="E59" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>4.0358744394618835</v>
       </c>
       <c r="F59">
-        <v>1204</v>
+        <v>842</v>
       </c>
       <c r="G59" s="7">
-        <f t="shared" si="1"/>
-        <v>17.703349282296649</v>
+        <f t="shared" si="8"/>
+        <v>24.484304932735427</v>
       </c>
       <c r="H59">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I59">
-        <f t="shared" si="3"/>
-        <v>5.5E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B60">
-        <v>1317</v>
+        <v>515</v>
       </c>
       <c r="D60">
-        <v>1317</v>
+        <v>515</v>
       </c>
       <c r="E60" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F60">
-        <v>880</v>
+        <v>489</v>
       </c>
       <c r="G60" s="7">
-        <f t="shared" si="1"/>
-        <v>33.181473044798786</v>
+        <f t="shared" si="8"/>
+        <v>5.0485436893203888</v>
       </c>
       <c r="H60">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I60">
-        <f t="shared" si="3"/>
-        <v>5.5E-2</v>
+        <f t="shared" si="6"/>
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B61">
-        <v>1625</v>
+        <v>509</v>
       </c>
       <c r="D61">
-        <v>1610</v>
+        <v>509</v>
       </c>
       <c r="E61" s="7">
-        <f t="shared" si="0"/>
-        <v>0.92307692307692313</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>1367</v>
+        <v>411</v>
       </c>
       <c r="G61" s="7">
-        <f t="shared" si="1"/>
-        <v>15.876923076923077</v>
+        <f t="shared" si="8"/>
+        <v>19.253438113948921</v>
       </c>
       <c r="H61">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I61">
-        <f t="shared" si="3"/>
-        <v>5.6000000000000001E-2</v>
+        <f t="shared" si="6"/>
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B62">
-        <v>549</v>
+        <v>457</v>
       </c>
       <c r="D62">
-        <v>501</v>
+        <v>457</v>
       </c>
       <c r="E62" s="7">
-        <f t="shared" si="0"/>
-        <v>8.7431693989071047</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>400</v>
+        <v>432</v>
       </c>
       <c r="G62" s="7">
-        <f t="shared" si="1"/>
-        <v>27.140255009107467</v>
+        <f t="shared" si="8"/>
+        <v>5.4704595185995624</v>
       </c>
       <c r="H62">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="I62">
-        <f t="shared" si="3"/>
-        <v>9.0999999999999998E-2</v>
+        <f t="shared" si="6"/>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B63">
-        <v>814</v>
+        <v>1000</v>
       </c>
       <c r="D63">
-        <v>786</v>
+        <v>976</v>
       </c>
       <c r="E63" s="7">
-        <f t="shared" si="0"/>
-        <v>3.4398034398034398</v>
+        <f t="shared" si="7"/>
+        <v>2.4</v>
       </c>
       <c r="F63">
-        <v>572</v>
+        <v>801</v>
       </c>
       <c r="G63" s="7">
-        <f t="shared" si="1"/>
-        <v>29.72972972972973</v>
+        <f t="shared" si="8"/>
+        <v>19.899999999999999</v>
       </c>
       <c r="H63">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="I63">
-        <f t="shared" si="3"/>
-        <v>0.107</v>
+        <f t="shared" si="6"/>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B64">
-        <v>555</v>
+        <v>989</v>
       </c>
       <c r="D64">
-        <v>517</v>
+        <v>989</v>
       </c>
       <c r="E64" s="7">
-        <f t="shared" si="0"/>
-        <v>6.8468468468468471</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>379</v>
+        <v>654</v>
       </c>
       <c r="G64" s="7">
-        <f t="shared" si="1"/>
-        <v>31.711711711711711</v>
+        <f t="shared" si="8"/>
+        <v>33.872598584428715</v>
       </c>
       <c r="H64">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="I64">
-        <f t="shared" si="3"/>
-        <v>7.5999999999999998E-2</v>
+        <f t="shared" si="6"/>
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B65">
-        <v>1378</v>
+        <v>968</v>
       </c>
       <c r="D65">
-        <v>1378</v>
+        <v>968</v>
       </c>
       <c r="E65" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1011</v>
+        <v>674</v>
       </c>
       <c r="G65" s="7">
-        <f t="shared" si="1"/>
-        <v>26.632801161103046</v>
+        <f t="shared" si="8"/>
+        <v>30.371900826446282</v>
       </c>
       <c r="H65">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="I65">
-        <f t="shared" si="3"/>
-        <v>0.10100000000000001</v>
+        <f t="shared" si="6"/>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B66">
-        <v>1503</v>
+        <v>1463</v>
       </c>
       <c r="D66">
-        <v>1503</v>
+        <v>1463</v>
       </c>
       <c r="E66" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1235</v>
+        <v>1204</v>
       </c>
       <c r="G66" s="7">
-        <f t="shared" si="1"/>
-        <v>17.831004657351961</v>
+        <f t="shared" si="8"/>
+        <v>17.703349282296649</v>
       </c>
       <c r="H66">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="I66">
-        <f t="shared" si="3"/>
-        <v>8.5000000000000006E-2</v>
+        <f t="shared" si="6"/>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B67">
-        <v>1066</v>
+        <v>1317</v>
       </c>
       <c r="D67">
-        <v>1028</v>
+        <v>1317</v>
       </c>
       <c r="E67" s="7">
-        <f t="shared" si="0"/>
-        <v>3.5647279549718576</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>759</v>
+        <v>880</v>
       </c>
       <c r="G67" s="7">
-        <f t="shared" si="1"/>
-        <v>28.79924953095685</v>
+        <f t="shared" si="8"/>
+        <v>33.181473044798786</v>
       </c>
       <c r="H67">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="I67">
-        <f t="shared" si="3"/>
-        <v>8.7999999999999995E-2</v>
+        <f t="shared" si="6"/>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B68">
-        <v>2074</v>
+        <v>1625</v>
       </c>
       <c r="D68">
-        <v>2074</v>
+        <v>1610</v>
       </c>
       <c r="E68" s="7">
-        <f t="shared" ref="E68:E131" si="4">100*(B68-D68)/B68</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0.92307692307692313</v>
       </c>
       <c r="F68">
-        <v>1440</v>
+        <v>1367</v>
       </c>
       <c r="G68" s="7">
-        <f t="shared" ref="G68:G131" si="5">100*(B68-F68)/B68</f>
-        <v>30.568948891031823</v>
+        <f t="shared" si="8"/>
+        <v>15.876923076923077</v>
       </c>
       <c r="H68">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="I68">
-        <f t="shared" si="3"/>
-        <v>9.8000000000000004E-2</v>
+        <f t="shared" si="6"/>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69">
+        <v>549</v>
+      </c>
+      <c r="D69">
+        <v>501</v>
+      </c>
+      <c r="E69" s="7">
+        <f t="shared" si="7"/>
+        <v>8.7431693989071047</v>
+      </c>
+      <c r="F69">
+        <v>400</v>
+      </c>
+      <c r="G69" s="7">
+        <f t="shared" si="8"/>
+        <v>27.140255009107467</v>
+      </c>
+      <c r="H69">
+        <v>91</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="6"/>
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B70">
+        <v>814</v>
+      </c>
+      <c r="D70">
+        <v>786</v>
+      </c>
+      <c r="E70" s="7">
+        <f t="shared" si="7"/>
+        <v>3.4398034398034398</v>
+      </c>
+      <c r="F70">
+        <v>572</v>
+      </c>
+      <c r="G70" s="7">
+        <f t="shared" si="8"/>
+        <v>29.72972972972973</v>
+      </c>
+      <c r="H70">
+        <v>107</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="6"/>
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71">
+        <v>555</v>
+      </c>
+      <c r="D71">
+        <v>517</v>
+      </c>
+      <c r="E71" s="7">
+        <f t="shared" si="7"/>
+        <v>6.8468468468468471</v>
+      </c>
+      <c r="F71">
+        <v>379</v>
+      </c>
+      <c r="G71" s="7">
+        <f t="shared" si="8"/>
+        <v>31.711711711711711</v>
+      </c>
+      <c r="H71">
+        <v>76</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="6"/>
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72">
+        <v>1378</v>
+      </c>
+      <c r="D72">
+        <v>1378</v>
+      </c>
+      <c r="E72" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1011</v>
+      </c>
+      <c r="G72" s="7">
+        <f t="shared" si="8"/>
+        <v>26.632801161103046</v>
+      </c>
+      <c r="H72">
+        <v>101</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="6"/>
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B73">
+        <v>1503</v>
+      </c>
+      <c r="D73">
+        <v>1503</v>
+      </c>
+      <c r="E73" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1235</v>
+      </c>
+      <c r="G73" s="7">
+        <f t="shared" si="8"/>
+        <v>17.831004657351961</v>
+      </c>
+      <c r="H73">
+        <v>85</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="6"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74">
+        <v>1066</v>
+      </c>
+      <c r="D74">
+        <v>1028</v>
+      </c>
+      <c r="E74" s="7">
+        <f t="shared" si="7"/>
+        <v>3.5647279549718576</v>
+      </c>
+      <c r="F74">
+        <v>759</v>
+      </c>
+      <c r="G74" s="7">
+        <f t="shared" si="8"/>
+        <v>28.79924953095685</v>
+      </c>
+      <c r="H74">
+        <v>88</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="6"/>
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75">
+        <v>2074</v>
+      </c>
+      <c r="D75">
+        <v>2074</v>
+      </c>
+      <c r="E75" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1440</v>
+      </c>
+      <c r="G75" s="7">
+        <f t="shared" si="8"/>
+        <v>30.568948891031823</v>
+      </c>
+      <c r="H75">
+        <v>98</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="6"/>
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B69">
+      <c r="B76">
         <v>1806</v>
       </c>
-      <c r="D69">
+      <c r="D76">
         <v>1806</v>
       </c>
-      <c r="E69" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F69">
+      <c r="E76" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F76">
         <v>1321</v>
       </c>
-      <c r="G69" s="7">
-        <f t="shared" si="5"/>
+      <c r="G76" s="7">
+        <f t="shared" si="8"/>
         <v>26.854928017718716</v>
       </c>
-      <c r="H69">
+      <c r="H76">
         <v>102</v>
       </c>
-      <c r="I69">
-        <f t="shared" si="3"/>
+      <c r="I76">
+        <f t="shared" si="6"/>
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="12" t="s">
+    <row r="77" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B70">
+      <c r="B77">
         <v>1901</v>
       </c>
-      <c r="D70">
+      <c r="D77">
         <v>1820</v>
       </c>
-      <c r="E70" s="7">
-        <f t="shared" si="4"/>
+      <c r="E77" s="7">
+        <f t="shared" si="7"/>
         <v>4.2609153077327724</v>
       </c>
-      <c r="F70">
+      <c r="F77">
         <v>1258</v>
       </c>
-      <c r="G70" s="8">
-        <f t="shared" si="5"/>
+      <c r="G77" s="8">
+        <f t="shared" si="8"/>
         <v>33.824302998421885</v>
       </c>
-      <c r="H70">
+      <c r="H77">
         <v>99</v>
       </c>
-      <c r="I70">
-        <f t="shared" si="3"/>
+      <c r="I77">
+        <f t="shared" si="6"/>
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B71" s="3">
-        <f>SUM(B35:B70)</f>
+      <c r="B78" s="3">
+        <f>SUM(B42:B77)</f>
         <v>27727</v>
       </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3">
-        <f>SUM(D35:D70)</f>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3">
+        <f>SUM(D42:D77)</f>
         <v>27340</v>
       </c>
-      <c r="E71" s="9">
-        <f>SUM(E35:E70)</f>
+      <c r="E78" s="9">
+        <f>SUM(E42:E77)</f>
         <v>43.415877322783864</v>
       </c>
-      <c r="F71" s="3"/>
-      <c r="G71" s="7">
-        <f>SUM(G35:G70)</f>
-        <v>702.36123680808407</v>
-      </c>
-      <c r="H71" s="3">
-        <f>SUM(H35:H70)</f>
+      <c r="F78" s="3"/>
+      <c r="G78" s="7">
+        <f>SUM(G42:G77)/35</f>
+        <v>20.067463908802402</v>
+      </c>
+      <c r="H78" s="3">
+        <f>SUM(H42:H77)</f>
         <v>1945</v>
       </c>
-      <c r="I71" s="3">
-        <f>SUM(I35:I70)</f>
+      <c r="I78" s="3">
+        <f>SUM(I42:I77)</f>
         <v>1.9450000000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="5" t="s">
+    <row r="80" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="14" t="s">
+      <c r="C80" s="5"/>
+      <c r="D80" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E80" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="F80" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="G75" s="6" t="s">
+      <c r="G80" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H75" s="5" t="s">
+      <c r="H80" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="I75" s="5" t="s">
+      <c r="I80" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="11" t="s">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76" s="7">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76" s="7">
-        <v>0</v>
-      </c>
-      <c r="H76">
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81" s="7">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81" s="7">
+        <v>0</v>
+      </c>
+      <c r="H81">
         <v>27</v>
       </c>
-      <c r="I76">
-        <f>H76/1000</f>
+      <c r="I81">
+        <f>H81/1000</f>
         <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77" s="7">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77" s="7">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>27</v>
-      </c>
-      <c r="I77">
-        <f t="shared" ref="I77:I111" si="6">H77/1000</f>
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B78">
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78" s="7">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78" s="7">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>28</v>
-      </c>
-      <c r="I78">
-        <f t="shared" si="6"/>
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B79">
-        <v>2</v>
-      </c>
-      <c r="D79">
-        <v>2</v>
-      </c>
-      <c r="E79" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>2</v>
-      </c>
-      <c r="G79" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>27</v>
-      </c>
-      <c r="I79">
-        <f t="shared" si="6"/>
-        <v>2.7E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80" s="7">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80" s="7">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>30</v>
-      </c>
-      <c r="I80">
-        <f t="shared" si="6"/>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B81">
-        <v>4</v>
-      </c>
-      <c r="D81">
-        <v>4</v>
-      </c>
-      <c r="E81" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>2</v>
-      </c>
-      <c r="G81" s="7">
-        <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
-      <c r="H81">
-        <v>28</v>
-      </c>
-      <c r="I81">
-        <f t="shared" si="6"/>
-        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B82">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E82" s="7">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F82">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G82" s="7">
-        <f t="shared" si="5"/>
-        <v>22.222222222222221</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I82">
-        <f t="shared" si="6"/>
-        <v>2.8000000000000001E-2</v>
+        <f t="shared" ref="I82:I116" si="9">H82/1000</f>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" s="7">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83" s="7">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H83">
         <v>28</v>
       </c>
       <c r="I83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E84" s="7">
-        <f t="shared" si="4"/>
+        <f>100*(B84-D84)/B84</f>
         <v>0</v>
       </c>
       <c r="F84">
         <v>2</v>
       </c>
       <c r="G84" s="7">
-        <f t="shared" si="5"/>
-        <v>50</v>
+        <f>100*(B84-F84)/B84</f>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I84">
-        <f t="shared" si="6"/>
-        <v>2.8000000000000001E-2</v>
+        <f t="shared" si="9"/>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E85" s="7">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G85" s="7">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H85">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I85">
-        <f t="shared" si="6"/>
-        <v>3.5000000000000003E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.03</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E86" s="7">
+        <f>100*(B86-D86)/B86</f>
         <v>0</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G86" s="7">
-        <v>0</v>
+        <f>100*(B86-F86)/B86</f>
+        <v>50</v>
       </c>
       <c r="H86">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I86">
-        <f t="shared" si="6"/>
-        <v>3.4000000000000002E-2</v>
+        <f t="shared" si="9"/>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D87">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E87" s="7">
-        <f t="shared" si="4"/>
+        <f>100*(B87-D87)/B87</f>
         <v>0</v>
       </c>
       <c r="F87">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G87" s="7">
-        <f t="shared" si="5"/>
-        <v>50</v>
+        <f>100*(B87-F87)/B87</f>
+        <v>22.222222222222221</v>
       </c>
       <c r="H87">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I87">
-        <f t="shared" si="6"/>
-        <v>3.7999999999999999E-2</v>
+        <f t="shared" si="9"/>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D88">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E88" s="7">
-        <f t="shared" si="4"/>
+        <f>100*(B88-D88)/B88</f>
         <v>0</v>
       </c>
       <c r="F88">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G88" s="7">
-        <f t="shared" si="5"/>
-        <v>26.666666666666668</v>
+        <f>100*(B88-F88)/B88</f>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I88">
-        <f t="shared" si="6"/>
-        <v>3.5999999999999997E-2</v>
+        <f t="shared" si="9"/>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D89">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E89" s="7">
-        <f t="shared" si="4"/>
+        <f>100*(B89-D89)/B89</f>
         <v>0</v>
       </c>
       <c r="F89">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G89" s="7">
-        <f t="shared" si="5"/>
-        <v>45.454545454545453</v>
+        <f>100*(B89-F89)/B89</f>
+        <v>50</v>
       </c>
       <c r="H89">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I89">
-        <f t="shared" si="6"/>
-        <v>3.7999999999999999E-2</v>
+        <f t="shared" si="9"/>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D90">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E90" s="7">
-        <f t="shared" si="4"/>
+        <f>100*(B90-D90)/B90</f>
         <v>0</v>
       </c>
       <c r="F90">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G90" s="7">
-        <f t="shared" si="5"/>
-        <v>21.428571428571427</v>
+        <f>100*(B90-F90)/B90</f>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I90">
-        <f t="shared" si="6"/>
-        <v>3.3000000000000002E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="E91" s="7">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F91">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G91" s="7">
-        <f t="shared" si="5"/>
-        <v>23.076923076923077</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I91">
-        <f t="shared" si="6"/>
-        <v>3.5000000000000003E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B92">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D92">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E92" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E92:E116" si="10">100*(B92-D92)/B92</f>
         <v>0</v>
       </c>
       <c r="F92">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G92" s="7">
-        <f t="shared" si="5"/>
-        <v>25</v>
+        <f t="shared" ref="G92:G116" si="11">100*(B92-F92)/B92</f>
+        <v>50</v>
       </c>
       <c r="H92">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I92">
-        <f t="shared" si="6"/>
-        <v>3.5000000000000003E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B93">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D93">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E93" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F93">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G93" s="7">
-        <f t="shared" si="5"/>
-        <v>29.166666666666668</v>
+        <f t="shared" si="11"/>
+        <v>26.666666666666668</v>
       </c>
       <c r="H93">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I93">
-        <f t="shared" si="6"/>
-        <v>3.5000000000000003E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B94">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D94">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E94" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F94">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G94" s="7">
-        <f t="shared" si="5"/>
-        <v>62.5</v>
+        <f t="shared" si="11"/>
+        <v>45.454545454545453</v>
       </c>
       <c r="H94">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="I94">
-        <f t="shared" si="6"/>
-        <v>0.05</v>
+        <f t="shared" si="9"/>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="10" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B95">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D95">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E95" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F95">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G95" s="7">
-        <f t="shared" si="5"/>
-        <v>16.666666666666668</v>
+        <f t="shared" si="11"/>
+        <v>21.428571428571427</v>
       </c>
       <c r="H95">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="I95">
-        <f t="shared" si="6"/>
-        <v>5.2999999999999999E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B96">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D96">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E96" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F96">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G96" s="7">
-        <f t="shared" si="5"/>
-        <v>44.444444444444443</v>
+        <f t="shared" si="11"/>
+        <v>23.076923076923077</v>
       </c>
       <c r="H96">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="I96">
-        <f t="shared" si="6"/>
-        <v>5.1999999999999998E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B97">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D97">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E97" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F97">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G97" s="7">
-        <f t="shared" si="5"/>
-        <v>15.625</v>
+        <f t="shared" si="11"/>
+        <v>25</v>
       </c>
       <c r="H97">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="I97">
-        <f t="shared" si="6"/>
-        <v>5.1999999999999998E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B98">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D98">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E98" s="7">
-        <f t="shared" si="4"/>
-        <v>3.125</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G98" s="7">
-        <f t="shared" si="5"/>
-        <v>21.875</v>
+        <f t="shared" si="11"/>
+        <v>29.166666666666668</v>
       </c>
       <c r="H98">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="I98">
-        <f t="shared" si="6"/>
-        <v>5.8999999999999997E-2</v>
+        <f t="shared" si="9"/>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B99">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D99">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="E99" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F99">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="G99" s="7">
-        <f t="shared" si="5"/>
-        <v>21.212121212121211</v>
+        <f t="shared" si="11"/>
+        <v>62.5</v>
       </c>
       <c r="H99">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I99">
-        <f t="shared" si="6"/>
-        <v>5.2999999999999999E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.05</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B100">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="D100">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="E100" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F100">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="G100" s="7">
-        <f t="shared" si="5"/>
-        <v>21.05263157894737</v>
+        <f t="shared" si="11"/>
+        <v>16.666666666666668</v>
       </c>
       <c r="H100">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I100">
-        <f t="shared" si="6"/>
-        <v>5.0999999999999997E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B101">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D101">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="E101" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F101">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="G101" s="7">
-        <f t="shared" si="5"/>
-        <v>8.695652173913043</v>
+        <f t="shared" si="11"/>
+        <v>44.444444444444443</v>
       </c>
       <c r="H101">
         <v>52</v>
       </c>
       <c r="I101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B102">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D102">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="E102" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F102">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="G102" s="7">
-        <f t="shared" si="5"/>
-        <v>22.807017543859651</v>
+        <f t="shared" si="11"/>
+        <v>15.625</v>
       </c>
       <c r="H102">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I102">
-        <f t="shared" si="6"/>
-        <v>5.2999999999999999E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="10" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B103">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D103">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E103" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>3.125</v>
       </c>
       <c r="F103">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G103" s="7">
-        <f t="shared" si="5"/>
-        <v>42.857142857142854</v>
+        <f t="shared" si="11"/>
+        <v>21.875</v>
       </c>
       <c r="H103">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="I103">
-        <f t="shared" si="6"/>
-        <v>0.10199999999999999</v>
+        <f t="shared" si="9"/>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B104">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D104">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E104" s="7">
-        <f t="shared" si="4"/>
-        <v>4.3478260869565215</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G104" s="7">
-        <f t="shared" si="5"/>
-        <v>30.434782608695652</v>
+        <f t="shared" si="11"/>
+        <v>21.212121212121211</v>
       </c>
       <c r="H104">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="I104">
-        <f t="shared" si="6"/>
-        <v>0.09</v>
+        <f t="shared" si="9"/>
+        <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B105">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="D105">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E105" s="7">
-        <f t="shared" si="4"/>
-        <v>7.1428571428571432</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="G105" s="7">
-        <f t="shared" si="5"/>
-        <v>21.428571428571427</v>
+        <f t="shared" si="11"/>
+        <v>21.05263157894737</v>
       </c>
       <c r="H105">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="I105">
-        <f t="shared" si="6"/>
-        <v>7.6999999999999999E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="10" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B106">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D106">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E106" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F106">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G106" s="7">
-        <f t="shared" si="5"/>
-        <v>24</v>
+        <f t="shared" si="11"/>
+        <v>8.695652173913043</v>
       </c>
       <c r="H106">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="I106">
-        <f t="shared" si="6"/>
-        <v>9.9000000000000005E-2</v>
+        <f t="shared" si="9"/>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B107">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D107">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E107" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F107">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G107" s="7">
-        <f t="shared" si="5"/>
-        <v>27.777777777777779</v>
+        <f t="shared" si="11"/>
+        <v>22.807017543859651</v>
       </c>
       <c r="H107">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="I107">
-        <f t="shared" si="6"/>
-        <v>0.11600000000000001</v>
+        <f t="shared" si="9"/>
+        <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B108">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="D108">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="E108" s="7">
-        <f t="shared" si="4"/>
-        <v>3.5087719298245612</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="G108" s="7">
-        <f t="shared" si="5"/>
-        <v>21.05263157894737</v>
+        <f t="shared" si="11"/>
+        <v>42.857142857142854</v>
       </c>
       <c r="H108">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="I108">
-        <f t="shared" si="6"/>
-        <v>9.1999999999999998E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B109">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="D109">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="E109" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>4.3478260869565215</v>
       </c>
       <c r="F109">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="G109" s="7">
-        <f t="shared" si="5"/>
-        <v>25</v>
+        <f t="shared" si="11"/>
+        <v>30.434782608695652</v>
       </c>
       <c r="H109">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I109">
-        <f t="shared" si="6"/>
-        <v>0.1</v>
+        <f t="shared" si="9"/>
+        <v>0.09</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B110">
+        <v>14</v>
+      </c>
+      <c r="D110">
+        <v>13</v>
+      </c>
+      <c r="E110" s="7">
+        <f t="shared" si="10"/>
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="F110">
+        <v>11</v>
+      </c>
+      <c r="G110" s="7">
+        <f t="shared" si="11"/>
+        <v>21.428571428571427</v>
+      </c>
+      <c r="H110">
+        <v>77</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="9"/>
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B111">
+        <v>50</v>
+      </c>
+      <c r="D111">
+        <v>50</v>
+      </c>
+      <c r="E111" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>38</v>
+      </c>
+      <c r="G111" s="7">
+        <f t="shared" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="H111">
+        <v>99</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="9"/>
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B112">
+        <v>54</v>
+      </c>
+      <c r="D112">
+        <v>54</v>
+      </c>
+      <c r="E112" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>39</v>
+      </c>
+      <c r="G112" s="7">
+        <f t="shared" si="11"/>
+        <v>27.777777777777779</v>
+      </c>
+      <c r="H112">
+        <v>116</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="9"/>
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B113">
+        <v>57</v>
+      </c>
+      <c r="D113">
+        <v>55</v>
+      </c>
+      <c r="E113" s="7">
+        <f t="shared" si="10"/>
+        <v>3.5087719298245612</v>
+      </c>
+      <c r="F113">
+        <v>45</v>
+      </c>
+      <c r="G113" s="7">
+        <f t="shared" si="11"/>
+        <v>21.05263157894737</v>
+      </c>
+      <c r="H113">
+        <v>92</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="9"/>
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B114">
+        <v>92</v>
+      </c>
+      <c r="D114">
+        <v>92</v>
+      </c>
+      <c r="E114" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>69</v>
+      </c>
+      <c r="G114" s="7">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="H114">
+        <v>100</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="9"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B110">
+      <c r="B115">
         <v>86</v>
       </c>
-      <c r="D110">
+      <c r="D115">
         <v>86</v>
       </c>
-      <c r="E110" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F110">
+      <c r="E115" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F115">
         <v>73</v>
       </c>
-      <c r="G110" s="7">
-        <f t="shared" si="5"/>
+      <c r="G115" s="7">
+        <f t="shared" si="11"/>
         <v>15.116279069767442</v>
       </c>
-      <c r="H110">
+      <c r="H115">
         <v>93</v>
       </c>
-      <c r="I110">
-        <f t="shared" si="6"/>
+      <c r="I115">
+        <f t="shared" si="9"/>
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="12" t="s">
+    <row r="116" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B111">
+      <c r="B116">
         <v>88</v>
       </c>
-      <c r="D111">
+      <c r="D116">
         <v>87</v>
       </c>
-      <c r="E111" s="7">
-        <f t="shared" si="4"/>
+      <c r="E116" s="7">
+        <f t="shared" si="10"/>
         <v>1.1363636363636365</v>
       </c>
-      <c r="F111">
+      <c r="F116">
         <v>66</v>
       </c>
-      <c r="G111" s="8">
-        <f t="shared" si="5"/>
+      <c r="G116" s="8">
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
-      <c r="H111">
+      <c r="H116">
         <v>92</v>
       </c>
-      <c r="I111">
-        <f t="shared" si="6"/>
+      <c r="I116">
+        <f t="shared" si="9"/>
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112" s="2" t="s">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B112" s="3">
-        <f>SUM(B76:B111)</f>
+      <c r="B117" s="3">
+        <f>SUM(B81:B116)</f>
         <v>894</v>
       </c>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3">
-        <f>SUM(D76:D111)</f>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3">
+        <f>SUM(D81:D116)</f>
         <v>888</v>
       </c>
-      <c r="E112" s="9">
-        <f>SUM(E76:E111)</f>
+      <c r="E117" s="9">
+        <f>SUM(E81:E116)</f>
         <v>19.260818796001864</v>
       </c>
-      <c r="F112" s="3"/>
-      <c r="G112" s="7">
-        <f>SUM(G76:G111)</f>
-        <v>810.56131445645053</v>
-      </c>
-      <c r="H112" s="3">
-        <f>SUM(H76:H111)</f>
+      <c r="F117" s="3"/>
+      <c r="G117" s="7">
+        <f>SUM(G81:G116)/35</f>
+        <v>23.158894698755731</v>
+      </c>
+      <c r="H117" s="3">
+        <f>SUM(H81:H116)</f>
         <v>1906</v>
       </c>
-      <c r="I112" s="3">
-        <f>SUM(I76:I111)</f>
+      <c r="I117" s="3">
+        <f>SUM(I81:I116)</f>
         <v>1.9060000000000008</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B114" s="5" t="s">
+    <row r="119" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C114" s="5"/>
-      <c r="D114" s="14" t="s">
+      <c r="C119" s="5"/>
+      <c r="D119" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E114" s="6" t="s">
+      <c r="E119" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F114" s="5" t="s">
+      <c r="F119" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="G114" s="6" t="s">
+      <c r="G119" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H114" s="5" t="s">
+      <c r="H119" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="I114" s="5" t="s">
+      <c r="I119" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A115" s="11" t="s">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B115">
+      <c r="B120">
         <v>1742</v>
       </c>
-      <c r="D115">
+      <c r="D120">
         <v>1742</v>
       </c>
-      <c r="E115" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F115">
+      <c r="E120" s="7">
+        <f t="shared" ref="E120:E136" si="12">100*(B120-D120)/B120</f>
+        <v>0</v>
+      </c>
+      <c r="F120">
         <v>1336</v>
       </c>
-      <c r="G115" s="7">
-        <f t="shared" si="5"/>
+      <c r="G120" s="7">
+        <f t="shared" ref="G120:G136" si="13">100*(B120-F120)/B120</f>
         <v>23.30654420206659</v>
       </c>
-      <c r="H115">
+      <c r="H120">
         <v>30</v>
       </c>
-      <c r="I115">
-        <f>H115/1000</f>
+      <c r="I120">
+        <f>H120/1000</f>
         <v>0.03</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B116">
-        <v>4253</v>
-      </c>
-      <c r="D116">
-        <v>3853</v>
-      </c>
-      <c r="E116" s="7">
-        <f t="shared" si="4"/>
-        <v>9.4051257935574881</v>
-      </c>
-      <c r="F116">
-        <v>4253</v>
-      </c>
-      <c r="G116" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H116">
-        <v>32</v>
-      </c>
-      <c r="I116">
-        <f t="shared" ref="I116:I134" si="7">H116/1000</f>
-        <v>3.2000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B117">
-        <v>5638</v>
-      </c>
-      <c r="D117">
-        <v>5638</v>
-      </c>
-      <c r="E117" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F117">
-        <v>5125</v>
-      </c>
-      <c r="G117" s="7">
-        <f t="shared" si="5"/>
-        <v>9.0989712664065276</v>
-      </c>
-      <c r="H117">
-        <v>32</v>
-      </c>
-      <c r="I117">
-        <f t="shared" si="7"/>
-        <v>3.2000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A118" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B118">
-        <v>18453</v>
-      </c>
-      <c r="D118">
-        <v>18453</v>
-      </c>
-      <c r="E118" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F118">
-        <v>17113</v>
-      </c>
-      <c r="G118" s="7">
-        <f t="shared" si="5"/>
-        <v>7.2616918658212759</v>
-      </c>
-      <c r="H118">
-        <v>33</v>
-      </c>
-      <c r="I118">
-        <f t="shared" si="7"/>
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A119" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B119">
-        <v>17316</v>
-      </c>
-      <c r="D119">
-        <v>17316</v>
-      </c>
-      <c r="E119" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F119">
-        <v>17140</v>
-      </c>
-      <c r="G119" s="7">
-        <f t="shared" si="5"/>
-        <v>1.0164010164010164</v>
-      </c>
-      <c r="H119">
-        <v>33</v>
-      </c>
-      <c r="I119">
-        <f t="shared" si="7"/>
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A120" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B120">
-        <v>298</v>
-      </c>
-      <c r="D120">
-        <v>298</v>
-      </c>
-      <c r="E120" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
-      <c r="G120" s="7">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="H120">
-        <v>36</v>
-      </c>
-      <c r="I120">
-        <f t="shared" si="7"/>
-        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="10" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B121">
-        <v>12478</v>
+        <v>4253</v>
       </c>
       <c r="D121">
-        <v>12478</v>
+        <v>3853</v>
       </c>
       <c r="E121" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>9.4051257935574881</v>
       </c>
       <c r="F121">
-        <v>10163</v>
+        <v>4253</v>
       </c>
       <c r="G121" s="7">
-        <f t="shared" si="5"/>
-        <v>18.552652668696908</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I121">
-        <f t="shared" si="7"/>
-        <v>4.1000000000000002E-2</v>
+        <f t="shared" ref="I121:I139" si="14">H121/1000</f>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="10" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B122">
-        <v>9405</v>
+        <v>5638</v>
       </c>
       <c r="D122">
-        <v>9405</v>
+        <v>5638</v>
       </c>
       <c r="E122" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F122">
-        <v>5632</v>
+        <v>5125</v>
       </c>
       <c r="G122" s="7">
-        <f t="shared" si="5"/>
-        <v>40.116959064327489</v>
+        <f t="shared" si="13"/>
+        <v>9.0989712664065276</v>
       </c>
       <c r="H122">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I122">
-        <f t="shared" si="7"/>
-        <v>3.7999999999999999E-2</v>
+        <f t="shared" si="14"/>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B123">
-        <v>14847</v>
+        <v>18453</v>
       </c>
       <c r="D123">
-        <v>14847</v>
+        <v>18453</v>
       </c>
       <c r="E123" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F123">
-        <v>14132</v>
+        <v>17113</v>
       </c>
       <c r="G123" s="7">
-        <f t="shared" si="5"/>
-        <v>4.8157877012191017</v>
+        <f t="shared" si="13"/>
+        <v>7.2616918658212759</v>
       </c>
       <c r="H123">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I123">
-        <f t="shared" si="7"/>
-        <v>4.2999999999999997E-2</v>
+        <f t="shared" si="14"/>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="10" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B124">
-        <v>17523</v>
+        <v>17316</v>
       </c>
       <c r="D124">
-        <v>17523</v>
+        <v>17316</v>
       </c>
       <c r="E124" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F124">
-        <v>13813</v>
+        <v>17140</v>
       </c>
       <c r="G124" s="7">
-        <f t="shared" si="5"/>
-        <v>21.172173714546595</v>
+        <f t="shared" si="13"/>
+        <v>1.0164010164010164</v>
       </c>
       <c r="H124">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I124">
-        <f t="shared" si="7"/>
-        <v>4.1000000000000002E-2</v>
+        <f t="shared" si="14"/>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="10" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B125">
-        <v>17405</v>
+        <v>298</v>
       </c>
       <c r="D125">
-        <v>17405</v>
+        <v>298</v>
       </c>
       <c r="E125" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F125">
-        <v>16113</v>
+        <v>0</v>
       </c>
       <c r="G125" s="7">
-        <f t="shared" si="5"/>
-        <v>7.423154266015513</v>
+        <f t="shared" si="13"/>
+        <v>100</v>
       </c>
       <c r="H125">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I125">
-        <f t="shared" si="7"/>
-        <v>4.7E-2</v>
+        <f t="shared" si="14"/>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="10" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B126">
-        <v>7125</v>
+        <v>12478</v>
       </c>
       <c r="D126">
-        <v>7125</v>
+        <v>12478</v>
       </c>
       <c r="E126" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F126">
-        <v>6460</v>
+        <v>10163</v>
       </c>
       <c r="G126" s="7">
-        <f t="shared" si="5"/>
-        <v>9.3333333333333339</v>
+        <f t="shared" si="13"/>
+        <v>18.552652668696908</v>
       </c>
       <c r="H126">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I126">
-        <f t="shared" si="7"/>
-        <v>4.5999999999999999E-2</v>
+        <f t="shared" si="14"/>
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="10" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B127">
-        <v>1493</v>
+        <v>9405</v>
       </c>
       <c r="D127">
-        <v>1493</v>
+        <v>9405</v>
       </c>
       <c r="E127" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1315</v>
+        <v>5632</v>
       </c>
       <c r="G127" s="7">
-        <f t="shared" si="5"/>
-        <v>11.922304085733423</v>
+        <f t="shared" si="13"/>
+        <v>40.116959064327489</v>
       </c>
       <c r="H127">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I127">
-        <f t="shared" si="7"/>
-        <v>4.2000000000000003E-2</v>
+        <f t="shared" si="14"/>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B128">
-        <v>32453</v>
+        <v>14847</v>
       </c>
       <c r="D128">
-        <v>30464</v>
+        <v>14847</v>
       </c>
       <c r="E128" s="7">
-        <f t="shared" si="4"/>
-        <v>6.1288632792037721</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>29205</v>
+        <v>14132</v>
       </c>
       <c r="G128" s="7">
-        <f t="shared" si="5"/>
-        <v>10.008319723908421</v>
+        <f t="shared" si="13"/>
+        <v>4.8157877012191017</v>
       </c>
       <c r="H128">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="I128">
-        <f t="shared" si="7"/>
-        <v>5.8000000000000003E-2</v>
+        <f t="shared" si="14"/>
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B129">
-        <v>30732</v>
+        <v>17523</v>
       </c>
       <c r="D129">
-        <v>30732</v>
+        <v>17523</v>
       </c>
       <c r="E129" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F129">
-        <v>26488</v>
+        <v>13813</v>
       </c>
       <c r="G129" s="7">
-        <f t="shared" si="5"/>
-        <v>13.809709748796044</v>
+        <f t="shared" si="13"/>
+        <v>21.172173714546595</v>
       </c>
       <c r="H129">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="I129">
-        <f t="shared" si="7"/>
-        <v>5.7000000000000002E-2</v>
+        <f t="shared" si="14"/>
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="10" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B130">
-        <v>27791</v>
+        <v>17405</v>
       </c>
       <c r="D130">
-        <v>27791</v>
+        <v>17405</v>
       </c>
       <c r="E130" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F130">
-        <v>27444</v>
+        <v>16113</v>
       </c>
       <c r="G130" s="7">
-        <f t="shared" si="5"/>
-        <v>1.2486056637040768</v>
+        <f t="shared" si="13"/>
+        <v>7.423154266015513</v>
       </c>
       <c r="H130">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="I130">
-        <f t="shared" si="7"/>
-        <v>6.2E-2</v>
+        <f t="shared" si="14"/>
+        <v>4.7E-2</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="10" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B131">
-        <v>10533</v>
+        <v>7125</v>
       </c>
       <c r="D131">
-        <v>10533</v>
+        <v>7125</v>
       </c>
       <c r="E131" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F131">
-        <v>8991</v>
+        <v>6460</v>
       </c>
       <c r="G131" s="7">
-        <f t="shared" si="5"/>
-        <v>14.639703788094559</v>
+        <f t="shared" si="13"/>
+        <v>9.3333333333333339</v>
       </c>
       <c r="H131">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I131">
-        <f t="shared" si="7"/>
-        <v>5.2999999999999999E-2</v>
+        <f t="shared" si="14"/>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B132">
-        <v>4276</v>
+        <v>1493</v>
       </c>
       <c r="D132">
-        <v>4001</v>
+        <v>1493</v>
       </c>
       <c r="E132" s="7">
-        <f t="shared" ref="E132:E134" si="8">100*(B132-D132)/B132</f>
-        <v>6.431244153414406</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>4276</v>
+        <v>1315</v>
       </c>
       <c r="G132" s="7">
-        <f t="shared" ref="G132:G134" si="9">100*(B132-F132)/B132</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>11.922304085733423</v>
       </c>
       <c r="H132">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I132">
-        <f t="shared" si="7"/>
-        <v>4.9000000000000002E-2</v>
+        <f t="shared" si="14"/>
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B133">
+        <v>32453</v>
+      </c>
+      <c r="D133">
+        <v>30464</v>
+      </c>
+      <c r="E133" s="7">
+        <f t="shared" si="12"/>
+        <v>6.1288632792037721</v>
+      </c>
+      <c r="F133">
+        <v>29205</v>
+      </c>
+      <c r="G133" s="7">
+        <f t="shared" si="13"/>
+        <v>10.008319723908421</v>
+      </c>
+      <c r="H133">
+        <v>58</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="14"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B134">
+        <v>30732</v>
+      </c>
+      <c r="D134">
+        <v>30732</v>
+      </c>
+      <c r="E134" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>26488</v>
+      </c>
+      <c r="G134" s="7">
+        <f t="shared" si="13"/>
+        <v>13.809709748796044</v>
+      </c>
+      <c r="H134">
+        <v>57</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="14"/>
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B135">
+        <v>27791</v>
+      </c>
+      <c r="D135">
+        <v>27791</v>
+      </c>
+      <c r="E135" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>27444</v>
+      </c>
+      <c r="G135" s="7">
+        <f t="shared" si="13"/>
+        <v>1.2486056637040768</v>
+      </c>
+      <c r="H135">
+        <v>62</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="14"/>
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B136">
+        <v>10533</v>
+      </c>
+      <c r="D136">
+        <v>10533</v>
+      </c>
+      <c r="E136" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>8991</v>
+      </c>
+      <c r="G136" s="7">
+        <f t="shared" si="13"/>
+        <v>14.639703788094559</v>
+      </c>
+      <c r="H136">
+        <v>53</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="14"/>
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B137">
+        <v>4276</v>
+      </c>
+      <c r="D137">
+        <v>4001</v>
+      </c>
+      <c r="E137" s="7">
+        <f t="shared" ref="E137:E139" si="15">100*(B137-D137)/B137</f>
+        <v>6.431244153414406</v>
+      </c>
+      <c r="F137">
+        <v>4276</v>
+      </c>
+      <c r="G137" s="7">
+        <f t="shared" ref="G137:G139" si="16">100*(B137-F137)/B137</f>
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>49</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="14"/>
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B133">
+      <c r="B138">
         <v>28462</v>
       </c>
-      <c r="D133">
+      <c r="D138">
         <v>28462</v>
       </c>
-      <c r="E133" s="7">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F133">
+      <c r="E138" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F138">
         <v>23016</v>
       </c>
-      <c r="G133" s="7">
-        <f t="shared" si="9"/>
+      <c r="G138" s="7">
+        <f t="shared" si="16"/>
         <v>19.134284308903098</v>
       </c>
-      <c r="H133">
+      <c r="H138">
         <v>63</v>
       </c>
-      <c r="I133">
-        <f t="shared" si="7"/>
+      <c r="I138">
+        <f t="shared" si="14"/>
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="12" t="s">
+    <row r="139" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B134">
+      <c r="B139">
         <v>26873</v>
       </c>
-      <c r="D134">
+      <c r="D139">
         <v>26873</v>
       </c>
-      <c r="E134" s="7">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F134">
+      <c r="E139" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F139">
         <v>20048</v>
       </c>
-      <c r="G134" s="8">
-        <f t="shared" si="9"/>
+      <c r="G139" s="8">
+        <f t="shared" si="16"/>
         <v>25.397238864287576</v>
       </c>
-      <c r="H134">
+      <c r="H139">
         <v>60</v>
       </c>
-      <c r="I134">
-        <f t="shared" si="7"/>
+      <c r="I139">
+        <f t="shared" si="14"/>
         <v>0.06</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A135" s="2" t="s">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B135" s="3">
-        <f>SUM(B115:B134)</f>
+      <c r="B140" s="3">
+        <f>SUM(B120:B139)</f>
         <v>289096</v>
       </c>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3">
-        <f>SUM(D115:D134)</f>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3">
+        <f t="shared" ref="D140:I140" si="17">SUM(D120:D139)</f>
         <v>286432</v>
       </c>
-      <c r="E135" s="9">
-        <f>SUM(E115:E134)</f>
+      <c r="E140" s="9">
+        <f t="shared" si="17"/>
         <v>21.965233226175666</v>
       </c>
-      <c r="F135" s="3">
-        <f>SUM(F115:F134)</f>
+      <c r="F140" s="3">
+        <f t="shared" si="17"/>
         <v>252063</v>
       </c>
-      <c r="G135" s="13">
-        <f>SUM(G115:G134)</f>
-        <v>338.25783528226157</v>
-      </c>
-      <c r="H135" s="3">
-        <f>SUM(H115:H134)</f>
+      <c r="G140" s="13">
+        <f>SUM(G120:G139)/19</f>
+        <v>17.803043962224294</v>
+      </c>
+      <c r="H140" s="3">
+        <f t="shared" si="17"/>
         <v>896</v>
       </c>
-      <c r="I135" s="3">
-        <f>SUM(I115:I134)</f>
+      <c r="I140" s="3">
+        <f t="shared" si="17"/>
         <v>0.89600000000000013</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tablas.xlsx
+++ b/Tablas.xlsx
@@ -578,8 +578,8 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>187793</xdr:rowOff>
     </xdr:to>
@@ -893,15 +893,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G141" sqref="G141"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.5546875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="5" width="13.109375" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" style="7"/>
@@ -1803,10 +1804,13 @@
         <f>SUM(E15:E38)</f>
         <v>49.140572974075653</v>
       </c>
-      <c r="F39" s="3"/>
+      <c r="F39" s="3">
+        <f>SUM(F15:F38)</f>
+        <v>1861</v>
+      </c>
       <c r="G39" s="7">
-        <f>SUM(G15:G38)/24</f>
-        <v>17.48915468993102</v>
+        <f>SUM(G15:G38)</f>
+        <v>419.73971255834448</v>
       </c>
       <c r="H39" s="3">
         <f>SUM(H15:H38)</f>
@@ -2903,10 +2907,13 @@
         <f>SUM(E42:E77)</f>
         <v>43.415877322783864</v>
       </c>
-      <c r="F78" s="3"/>
+      <c r="F78" s="3">
+        <f>SUM(F42:F77)</f>
+        <v>21343</v>
+      </c>
       <c r="G78" s="7">
-        <f>SUM(G42:G77)/35</f>
-        <v>20.067463908802402</v>
+        <f>SUM(G42:G77)</f>
+        <v>702.36123680808407</v>
       </c>
       <c r="H78" s="3">
         <f>SUM(H42:H77)</f>
@@ -3995,10 +4002,13 @@
         <f>SUM(E81:E116)</f>
         <v>19.260818796001864</v>
       </c>
-      <c r="F117" s="3"/>
+      <c r="F117" s="3">
+        <f>SUM(F81:F116)</f>
+        <v>685</v>
+      </c>
       <c r="G117" s="7">
-        <f>SUM(G81:G116)/35</f>
-        <v>23.158894698755731</v>
+        <f>SUM(G81:G116)</f>
+        <v>810.56131445645053</v>
       </c>
       <c r="H117" s="3">
         <f>SUM(H81:H116)</f>
@@ -4638,8 +4648,8 @@
         <v>252063</v>
       </c>
       <c r="G140" s="13">
-        <f>SUM(G120:G139)/19</f>
-        <v>17.803043962224294</v>
+        <f>SUM(G120:G139)</f>
+        <v>338.25783528226157</v>
       </c>
       <c r="H140" s="3">
         <f t="shared" si="17"/>
